--- a/100runs/run057/NotionalETEOutput057.xlsx
+++ b/100runs/run057/NotionalETEOutput057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,34 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>MISSILE_SOMERSAULT_131.MISSILE_SOMERSAULT_131</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_335.MISSILE_HELLMASKER_335</t>
+    <t>MISSILE_BRAVER_495.MISSILE_BRAVER_495</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_176.MISSILE_SOMERSAULT_176</t>
+    <t>MISSILE_HELLMASKER_182.MISSILE_HELLMASKER_182</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_191.MISSILE_HELLMASKER_191</t>
+    <t>MISSILE_BRAVER_269.MISSILE_BRAVER_269</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G2">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H2">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I2">
-        <v>-1769.000130872557</v>
+        <v>1114861.801520972</v>
       </c>
       <c r="J2">
-        <v>2252.124025251172</v>
+        <v>4843225.593574023</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984377.006564581</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G3">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H3">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I3">
-        <v>-1734.075357906471</v>
+        <v>1114891.415529232</v>
       </c>
       <c r="J3">
-        <v>2197.339319885506</v>
+        <v>4843176.941962494</v>
       </c>
       <c r="K3">
-        <v>178.9970256550125</v>
+        <v>3984680.803066298</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G4">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H4">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I4">
-        <v>-1698.290594536298</v>
+        <v>1114921.758755202</v>
       </c>
       <c r="J4">
-        <v>2142.55461451984</v>
+        <v>4843128.290350962</v>
       </c>
       <c r="K4">
-        <v>349.0684391179561</v>
+        <v>3984969.450881886</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G5">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H5">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I5">
-        <v>-1661.624664289512</v>
+        <v>1114952.849155195</v>
       </c>
       <c r="J5">
-        <v>2087.769909154173</v>
+        <v>4843079.638739433</v>
       </c>
       <c r="K5">
-        <v>510.214240388832</v>
+        <v>3985242.950011346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G6">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H6">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I6">
-        <v>-1624.055869242437</v>
+        <v>1114984.705127686</v>
       </c>
       <c r="J6">
-        <v>2032.985203788506</v>
+        <v>4843030.987127903</v>
       </c>
       <c r="K6">
-        <v>662.4344294676392</v>
+        <v>3985501.300454676</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G7">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H7">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I7">
-        <v>-1585.561977179985</v>
+        <v>1115017.345524193</v>
       </c>
       <c r="J7">
-        <v>1978.20049842284</v>
+        <v>4842982.335516374</v>
       </c>
       <c r="K7">
-        <v>805.7290063543788</v>
+        <v>3985744.502211878</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G8">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H8">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I8">
-        <v>-1546.120208439226</v>
+        <v>1115050.789660434</v>
       </c>
       <c r="J8">
-        <v>1923.415793057173</v>
+        <v>4842933.683904843</v>
       </c>
       <c r="K8">
-        <v>940.09797104905</v>
+        <v>3985972.555282951</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G9">
-        <v>-122.3866597154894</v>
+        <v>4841116.361878488</v>
       </c>
       <c r="H9">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I9">
-        <v>-1505.707222428988</v>
+        <v>1115085.057327763</v>
       </c>
       <c r="J9">
-        <v>1868.631087691506</v>
+        <v>4842885.032293313</v>
       </c>
       <c r="K9">
-        <v>1065.541323551653</v>
+        <v>3986185.459667895</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>360.3889990052208</v>
+        <v>1116579.442440185</v>
       </c>
       <c r="G10">
-        <v>-102.1771772386331</v>
+        <v>4841132.874669724</v>
       </c>
       <c r="H10">
-        <v>1058.344435669079</v>
+        <v>3985224.691345945</v>
       </c>
       <c r="I10">
-        <v>-1464.299103817514</v>
+        <v>1115120.168804874</v>
       </c>
       <c r="J10">
-        <v>1813.84638232584</v>
+        <v>4842836.380681784</v>
       </c>
       <c r="K10">
-        <v>1182.059063862187</v>
+        <v>3986383.215366711</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>279.7039049324134</v>
+        <v>1116530.761835494</v>
       </c>
       <c r="G11">
-        <v>-81.96769476177676</v>
+        <v>4841149.38746096</v>
       </c>
       <c r="H11">
-        <v>1303.873223085525</v>
+        <v>3985423.945570876</v>
       </c>
       <c r="I11">
-        <v>-1421.871348380003</v>
+        <v>1115156.144869806</v>
       </c>
       <c r="J11">
-        <v>1759.061676960174</v>
+        <v>4842787.729070254</v>
       </c>
       <c r="K11">
-        <v>1289.651191980653</v>
+        <v>3986565.822379398</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>232.3054597658889</v>
+        <v>1116502.164422321</v>
       </c>
       <c r="G12">
-        <v>-61.75821228492046</v>
+        <v>4841165.900252196</v>
       </c>
       <c r="H12">
-        <v>1450.122725689658</v>
+        <v>3985542.631577492</v>
       </c>
       <c r="I12">
-        <v>-1378.398848497662</v>
+        <v>1115193.006812241</v>
       </c>
       <c r="J12">
-        <v>1704.276971594507</v>
+        <v>4842739.077458723</v>
       </c>
       <c r="K12">
-        <v>1388.317707907051</v>
+        <v>3986733.280705956</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>202.3840838509051</v>
+        <v>1116484.111637114</v>
       </c>
       <c r="G13">
-        <v>-41.54872980806415</v>
+        <v>4841182.413043432</v>
       </c>
       <c r="H13">
-        <v>1554.637360574833</v>
+        <v>3985627.44844474</v>
       </c>
       <c r="I13">
-        <v>-1333.855878299684</v>
+        <v>1115230.776446096</v>
       </c>
       <c r="J13">
-        <v>1649.49226622884</v>
+        <v>4842690.425847193</v>
       </c>
       <c r="K13">
-        <v>1478.058611641382</v>
+        <v>3986885.590346384</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>181.5170377457908</v>
+        <v>1116471.521697991</v>
       </c>
       <c r="G14">
-        <v>-21.33924733120784</v>
+        <v>4841198.925834668</v>
       </c>
       <c r="H14">
-        <v>1636.022850766162</v>
+        <v>3985693.495293826</v>
       </c>
       <c r="I14">
-        <v>-1288.216078439363</v>
+        <v>1115269.476122436</v>
       </c>
       <c r="J14">
-        <v>1594.707560863174</v>
+        <v>4842641.774235664</v>
       </c>
       <c r="K14">
-        <v>1558.873903183643</v>
+        <v>3987022.751300685</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>165.9495964546436</v>
+        <v>1116462.12922638</v>
       </c>
       <c r="G15">
-        <v>-1.129764854351551</v>
+        <v>4841215.438625904</v>
       </c>
       <c r="H15">
-        <v>1702.683880066905</v>
+        <v>3985747.592786288</v>
       </c>
       <c r="I15">
-        <v>-1241.452440495328</v>
+        <v>1115309.128742704</v>
       </c>
       <c r="J15">
-        <v>1539.922855497507</v>
+        <v>4842593.122624134</v>
       </c>
       <c r="K15">
-        <v>1630.763582533836</v>
+        <v>3987144.763568857</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>153.7780312936927</v>
+        <v>1116454.7856252</v>
       </c>
       <c r="G16">
-        <v>19.07971762250476</v>
+        <v>4841231.951417139</v>
       </c>
       <c r="H16">
-        <v>1759.140905865341</v>
+        <v>3985793.409413477</v>
       </c>
       <c r="I16">
-        <v>-1193.537290988679</v>
+        <v>1115349.757772266</v>
       </c>
       <c r="J16">
-        <v>1485.138150131841</v>
+        <v>4842544.471012603</v>
       </c>
       <c r="K16">
-        <v>1693.727649691961</v>
+        <v>3987251.6271509</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>143.9303488377642</v>
+        <v>1116448.84411714</v>
       </c>
       <c r="G17">
-        <v>39.28920009936107</v>
+        <v>4841248.464208375</v>
       </c>
       <c r="H17">
-        <v>1808.107093388711</v>
+        <v>3985833.146993113</v>
       </c>
       <c r="I17">
-        <v>-1144.442275006557</v>
+        <v>1115391.387254303</v>
       </c>
       <c r="J17">
-        <v>1430.353444766174</v>
+        <v>4842495.819401073</v>
       </c>
       <c r="K17">
-        <v>1747.766104658018</v>
+        <v>3987343.342046814</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>135.7532634735105</v>
+        <v>1116443.910548372</v>
       </c>
       <c r="G18">
-        <v>59.49868257621736</v>
+        <v>4841264.976999612</v>
       </c>
       <c r="H18">
-        <v>1851.339391586492</v>
+        <v>3985868.23134375</v>
       </c>
       <c r="I18">
-        <v>-1094.138339422463</v>
+        <v>1115434.041824036</v>
       </c>
       <c r="J18">
-        <v>1375.568739400507</v>
+        <v>4842447.167789544</v>
       </c>
       <c r="K18">
-        <v>1792.878947432007</v>
+        <v>3987419.908256599</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>128.8237988765341</v>
+        <v>1116439.729720046</v>
       </c>
       <c r="G19">
-        <v>79.70816505307369</v>
+        <v>4841281.489790847</v>
       </c>
       <c r="H19">
-        <v>1890.040998060398</v>
+        <v>3985899.638897556</v>
       </c>
       <c r="I19">
-        <v>-1042.595715703382</v>
+        <v>1115477.746723308</v>
       </c>
       <c r="J19">
-        <v>1320.784034034841</v>
+        <v>4842398.516178014</v>
       </c>
       <c r="K19">
-        <v>1829.066178013927</v>
+        <v>3987481.325780255</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>122.8547411673432</v>
+        <v>1116436.128344327</v>
       </c>
       <c r="G20">
-        <v>99.91764752992997</v>
+        <v>4841298.002582083</v>
       </c>
       <c r="H20">
-        <v>1925.072098605894</v>
+        <v>3985928.067721976</v>
       </c>
       <c r="I20">
-        <v>-989.7839022935626</v>
+        <v>1115522.527815517</v>
       </c>
       <c r="J20">
-        <v>1265.999328669174</v>
+        <v>4842349.864566484</v>
       </c>
       <c r="K20">
-        <v>1856.327796403779</v>
+        <v>3987527.594617783</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>117.643445355655</v>
+        <v>1116432.984157234</v>
       </c>
       <c r="G21">
-        <v>120.1271300067863</v>
+        <v>4841314.515373319</v>
       </c>
       <c r="H21">
-        <v>1957.069009027859</v>
+        <v>3985954.03420702</v>
       </c>
       <c r="I21">
-        <v>-935.6716465645046</v>
+        <v>1115568.411600923</v>
       </c>
       <c r="J21">
-        <v>1211.214623303508</v>
+        <v>4842301.212954953</v>
       </c>
       <c r="K21">
-        <v>1874.663802601563</v>
+        <v>3987558.714769182</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>113.0423636975179</v>
+        <v>1116430.208137203</v>
       </c>
       <c r="G22">
-        <v>140.3366124836426</v>
+        <v>4841331.028164554</v>
       </c>
       <c r="H22">
-        <v>1986.515696548429</v>
+        <v>3985977.931107096</v>
       </c>
       <c r="I22">
-        <v>-880.2269263204805</v>
+        <v>1115615.425232333</v>
       </c>
       <c r="J22">
-        <v>1156.429917937841</v>
+        <v>4842252.561343424</v>
       </c>
       <c r="K22">
-        <v>1884.074196607279</v>
+        <v>3987574.686234452</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>108.9412037157675</v>
+        <v>1116427.733740289</v>
       </c>
       <c r="G23">
-        <v>160.5460949604989</v>
+        <v>4841347.54095579</v>
       </c>
       <c r="H23">
-        <v>2013.788839959407</v>
+        <v>3986000.064108725</v>
       </c>
       <c r="I23">
-        <v>-823.4169308486546</v>
+        <v>1115663.596531165</v>
       </c>
       <c r="J23">
-        <v>1101.645212572175</v>
+        <v>4842203.909731895</v>
       </c>
       <c r="K23">
-        <v>1884.558978420926</v>
+        <v>3987575.509013594</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>105.2556637800729</v>
+        <v>1116425.510103882</v>
       </c>
       <c r="G24">
-        <v>180.7555774373552</v>
+        <v>4841364.053747026</v>
       </c>
       <c r="H24">
-        <v>2039.187371423128</v>
+        <v>3986020.675804626</v>
       </c>
       <c r="I24">
-        <v>-765.2080415025729</v>
+        <v>1115712.954003913</v>
       </c>
       <c r="J24">
-        <v>1046.860507206508</v>
+        <v>4842155.258120364</v>
       </c>
       <c r="K24">
-        <v>1876.118148042505</v>
+        <v>3987561.183106606</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>101.9200642582864</v>
+        <v>1116423.497600785</v>
       </c>
       <c r="G25">
-        <v>200.9650599142115</v>
+        <v>4841380.566538262</v>
       </c>
       <c r="H25">
-        <v>2062.952501972064</v>
+        <v>3986039.961945032</v>
       </c>
       <c r="I25">
-        <v>-705.5658118075395</v>
+        <v>1115763.52685902</v>
       </c>
       <c r="J25">
-        <v>992.0758018408416</v>
+        <v>4842106.606508834</v>
       </c>
       <c r="K25">
-        <v>1858.751705472016</v>
+        <v>3987531.70851349</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>98.88237806557899</v>
+        <v>1116421.664840937</v>
       </c>
       <c r="G26">
-        <v>221.1745423910678</v>
+        <v>4841397.079329498</v>
       </c>
       <c r="H26">
-        <v>2085.281687681521</v>
+        <v>3986058.082771672</v>
       </c>
       <c r="I26">
-        <v>-644.4549470761115</v>
+        <v>1115815.345024157</v>
       </c>
       <c r="J26">
-        <v>937.2910964751749</v>
+        <v>4842057.954897304</v>
       </c>
       <c r="K26">
-        <v>1832.459650709459</v>
+        <v>3987487.085234245</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>96.10078979766922</v>
+        <v>1116419.986595402</v>
       </c>
       <c r="G27">
-        <v>241.3840248679241</v>
+        <v>4841413.592120733</v>
       </c>
       <c r="H27">
-        <v>2106.338611648746</v>
+        <v>3986075.171118455</v>
       </c>
       <c r="I27">
-        <v>-581.8392835216367</v>
+        <v>1115868.43916394</v>
       </c>
       <c r="J27">
-        <v>882.5063911095082</v>
+        <v>4842009.303285774</v>
       </c>
       <c r="K27">
-        <v>1797.241983754833</v>
+        <v>3987427.313268872</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>93.54125768490553</v>
+        <v>1116418.442325392</v>
       </c>
       <c r="G28">
-        <v>261.5935073447804</v>
+        <v>4841430.10491197</v>
       </c>
       <c r="H28">
-        <v>2126.260472378376</v>
+        <v>3986091.338326221</v>
       </c>
       <c r="I28">
-        <v>-517.6817668574876</v>
+        <v>1115922.840698068</v>
       </c>
       <c r="J28">
-        <v>827.7216857438418</v>
+        <v>4841960.651674244</v>
       </c>
       <c r="K28">
-        <v>1753.09870460814</v>
+        <v>3987352.392617369</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>91.1757506095198</v>
+        <v>1116417.015118593</v>
       </c>
       <c r="G29">
-        <v>281.8029898216367</v>
+        <v>4841446.617703206</v>
       </c>
       <c r="H29">
-        <v>2145.16340631626</v>
+        <v>3986106.678643299</v>
       </c>
       <c r="I29">
-        <v>-451.944430369316</v>
+        <v>1115978.581819926</v>
       </c>
       <c r="J29">
-        <v>772.9369803781751</v>
+        <v>4841912.000062714</v>
       </c>
       <c r="K29">
-        <v>1700.029813269377</v>
+        <v>3987262.323279738</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>88.98095002555505</v>
+        <v>1116415.690905976</v>
       </c>
       <c r="G30">
-        <v>302.012472298493</v>
+        <v>4841463.130494441</v>
       </c>
       <c r="H30">
-        <v>2163.146589917335</v>
+        <v>3986121.272554457</v>
       </c>
       <c r="I30">
-        <v>-384.5883724473641</v>
+        <v>1116035.69551563</v>
       </c>
       <c r="J30">
-        <v>718.1522750125085</v>
+        <v>4841863.348451184</v>
       </c>
       <c r="K30">
-        <v>1638.035309738547</v>
+        <v>3987157.105255978</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>86.93727861464149</v>
+        <v>1116414.457875747</v>
       </c>
       <c r="G31">
-        <v>322.2219547753493</v>
+        <v>4841479.643285677</v>
       </c>
       <c r="H31">
-        <v>2180.295389256594</v>
+        <v>3986135.189336911</v>
       </c>
       <c r="I31">
-        <v>-315.5737335655213</v>
+        <v>1116094.215583546</v>
       </c>
       <c r="J31">
-        <v>663.3675696468421</v>
+        <v>4841814.696839654</v>
       </c>
       <c r="K31">
-        <v>1567.115194015649</v>
+        <v>3987036.738546089</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>85.02816279139337</v>
+        <v>1116413.306028385</v>
       </c>
       <c r="G32">
-        <v>342.4314372522056</v>
+        <v>4841496.156076914</v>
       </c>
       <c r="H32">
-        <v>2196.683810828254</v>
+        <v>3986148.489049228</v>
       </c>
       <c r="I32">
-        <v>-244.8596726935168</v>
+        <v>1116154.176654297</v>
       </c>
       <c r="J32">
-        <v>608.5828642811754</v>
+        <v>4841766.045228124</v>
       </c>
       <c r="K32">
-        <v>1487.269466100682</v>
+        <v>3986901.223150071</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>83.23946534798746</v>
+        <v>1116412.226834339</v>
       </c>
       <c r="G33">
-        <v>362.6409197290619</v>
+        <v>4841512.668868149</v>
       </c>
       <c r="H33">
-        <v>2212.376431710901</v>
+        <v>3986161.224097709</v>
       </c>
       <c r="I33">
-        <v>-172.4043431282818</v>
+        <v>1116215.614211252</v>
       </c>
       <c r="J33">
-        <v>553.798158915509</v>
+        <v>4841717.393616594</v>
       </c>
       <c r="K33">
-        <v>1398.498125993647</v>
+        <v>3986750.559067925</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>81.55904373985142</v>
+        <v>1116411.212967515</v>
       </c>
       <c r="G34">
-        <v>382.8504022059182</v>
+        <v>4841529.181659385</v>
       </c>
       <c r="H34">
-        <v>2227.429936427773</v>
+        <v>3986173.440483601</v>
       </c>
       <c r="I34">
-        <v>-98.16486773018373</v>
+        <v>1116278.564611526</v>
       </c>
       <c r="J34">
-        <v>499.0134535498423</v>
+        <v>4841668.742005064</v>
       </c>
       <c r="K34">
-        <v>1300.801173694544</v>
+        <v>3986584.74629965</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>79.97640241745925</v>
+        <v>1116410.258095523</v>
       </c>
       <c r="G35">
-        <v>403.0598846827746</v>
+        <v>4841545.694450621</v>
       </c>
       <c r="H35">
-        <v>2241.894352919362</v>
+        <v>3986185.178806131</v>
       </c>
       <c r="I35">
-        <v>-22.09731354947286</v>
+        <v>1116343.065107492</v>
       </c>
       <c r="J35">
-        <v>444.2287481841757</v>
+        <v>4841620.090393534</v>
       </c>
       <c r="K35">
-        <v>1194.178609203372</v>
+        <v>3986403.784845246</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>78.48241643153739</v>
+        <v>1116409.356712906</v>
       </c>
       <c r="G36">
-        <v>423.2693671596309</v>
+        <v>4841562.207241856</v>
       </c>
       <c r="H36">
-        <v>2255.814055662361</v>
+        <v>3986196.475076562</v>
       </c>
       <c r="I36">
-        <v>55.84333417207159</v>
+        <v>1116409.153868833</v>
       </c>
       <c r="J36">
-        <v>389.4440428185093</v>
+        <v>4841571.438782004</v>
       </c>
       <c r="K36">
-        <v>1078.630432520132</v>
+        <v>3986207.674704713</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>77.06910967068902</v>
+        <v>1116408.504007353</v>
       </c>
       <c r="G37">
-        <v>443.4788496364871</v>
+        <v>4841578.720033092</v>
       </c>
       <c r="H37">
-        <v>2269.228586671709</v>
+        <v>3986207.361384466</v>
       </c>
       <c r="I37">
-        <v>135.7031986396779</v>
+        <v>1116476.870005121</v>
       </c>
       <c r="J37">
-        <v>334.6593374528426</v>
+        <v>4841522.787170474</v>
       </c>
       <c r="K37">
-        <v>954.1566436448244</v>
+        <v>3985996.415878052</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>75.7294754165096</v>
+        <v>1116407.695751426</v>
       </c>
       <c r="G38">
-        <v>463.6883321133434</v>
+        <v>4841595.232824327</v>
       </c>
       <c r="H38">
-        <v>2282.17333267563</v>
+        <v>3986217.86644727</v>
       </c>
       <c r="I38">
-        <v>217.5295388000715</v>
+        <v>1116546.253588968</v>
       </c>
       <c r="J38">
-        <v>279.8746320871762</v>
+        <v>4841474.135558945</v>
       </c>
       <c r="K38">
-        <v>820.7572425774486</v>
+        <v>3985770.008365261</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>74.45732999589787</v>
+        <v>1116406.928214261</v>
       </c>
       <c r="G39">
-        <v>483.8978145901998</v>
+        <v>4841611.745615564</v>
       </c>
       <c r="H39">
-        <v>2294.680087678466</v>
+        <v>3986228.016066794</v>
       </c>
       <c r="I39">
-        <v>301.3707773080613</v>
+        <v>1116617.345679736</v>
       </c>
       <c r="J39">
-        <v>225.0899267215095</v>
+        <v>4841425.483947414</v>
       </c>
       <c r="K39">
-        <v>678.4322293180036</v>
+        <v>3985528.452166342</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>73.24719255239773</v>
+        <v>1116406.198089036</v>
       </c>
       <c r="G40">
-        <v>504.107297067056</v>
+        <v>4841628.2584068</v>
       </c>
       <c r="H40">
-        <v>2306.777523428982</v>
+        <v>3986237.833511052</v>
       </c>
       <c r="I40">
-        <v>387.2765291817862</v>
+        <v>1116690.188347834</v>
       </c>
       <c r="J40">
-        <v>170.3052213558429</v>
+        <v>4841376.832335885</v>
       </c>
       <c r="K40">
-        <v>527.1816038664908</v>
+        <v>3985271.747281295</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>72.09418560219709</v>
+        <v>1116405.502432965</v>
       </c>
       <c r="G41">
-        <v>524.3167795439124</v>
+        <v>4841644.771198035</v>
       </c>
       <c r="H41">
-        <v>2318.491585313677</v>
+        <v>3986247.339835529</v>
       </c>
       <c r="I41">
-        <v>475.2976311635575</v>
+        <v>1116764.824699621</v>
       </c>
       <c r="J41">
-        <v>115.5205159901765</v>
+        <v>4841328.180724354</v>
       </c>
       <c r="K41">
-        <v>367.0053662229101</v>
+        <v>3984999.893710118</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>70.99395225884861</v>
+        <v>1116404.83861736</v>
       </c>
       <c r="G42">
-        <v>544.5262620207686</v>
+        <v>4841661.283989272</v>
       </c>
       <c r="H42">
-        <v>2329.845827425543</v>
+        <v>3986256.554155102</v>
       </c>
       <c r="I42">
-        <v>565.486171803703</v>
+        <v>1116841.298902906</v>
       </c>
       <c r="J42">
-        <v>60.73581062450981</v>
+        <v>4841279.529112825</v>
       </c>
       <c r="K42">
-        <v>197.9035163872607</v>
+        <v>3984712.891452813</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>69.94258692319298</v>
+        <v>1116404.204285817</v>
       </c>
       <c r="G43">
-        <v>564.735744497625</v>
+        <v>4841677.796780508</v>
       </c>
       <c r="H43">
-        <v>2340.86169768879</v>
+        <v>3986265.493875427</v>
       </c>
       <c r="I43">
-        <v>657.8955222851753</v>
+        <v>1116919.656213093</v>
       </c>
       <c r="J43">
-        <v>5.951105258843143</v>
+        <v>4841230.877501294</v>
       </c>
       <c r="K43">
-        <v>19.87605435954316</v>
+        <v>3984410.740509379</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>68.93657692479474</v>
+        <v>1116403.597318996</v>
       </c>
       <c r="G44">
-        <v>584.9452269744812</v>
+        <v>4841694.309571743</v>
       </c>
       <c r="H44">
-        <v>2351.558781714889</v>
+        <v>3986274.174890834</v>
       </c>
       <c r="I44">
-        <v>752.5803680072095</v>
+        <v>1116999.942999955</v>
       </c>
       <c r="J44">
-        <v>-48.83360010682326</v>
+        <v>4841182.225889765</v>
       </c>
       <c r="K44">
-        <v>-167.0770198602421</v>
+        <v>3984093.440879816</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>67.97275312741358</v>
+        <v>1116403.015804829</v>
       </c>
       <c r="G45">
-        <v>605.1547094513376</v>
+        <v>4841710.822362979</v>
       </c>
       <c r="H45">
-        <v>2361.955012356546</v>
+        <v>3986282.611754391</v>
       </c>
       <c r="I45">
-        <v>849.5967409466884</v>
+        <v>1117082.206775081</v>
       </c>
       <c r="J45">
-        <v>-103.6183054724899</v>
+        <v>4841133.574278235</v>
       </c>
       <c r="K45">
-        <v>-362.9557062720962</v>
+        <v>3983760.992564125</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>67.04824791581441</v>
+        <v>1116402.458013166</v>
       </c>
       <c r="G46">
-        <v>625.3641919281939</v>
+        <v>4841727.335154215</v>
       </c>
       <c r="H46">
-        <v>2372.066850591685</v>
+        <v>3986290.817824692</v>
       </c>
       <c r="I46">
-        <v>949.0020528163761</v>
+        <v>1117166.496219988</v>
       </c>
       <c r="J46">
-        <v>-158.4030108381566</v>
+        <v>4841084.922666704</v>
       </c>
       <c r="K46">
-        <v>-567.7600048760189</v>
+        <v>3983413.395562304</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>66.16045929506721</v>
+        <v>1116401.92237412</v>
       </c>
       <c r="G47">
-        <v>645.5736744050502</v>
+        <v>4841743.847945451</v>
       </c>
       <c r="H47">
-        <v>2381.909442319264</v>
+        <v>3986298.805393101</v>
       </c>
       <c r="I47">
-        <v>1050.855129039645</v>
+        <v>1117252.861214932</v>
       </c>
       <c r="J47">
-        <v>-213.1877162038232</v>
+        <v>4841036.271055174</v>
       </c>
       <c r="K47">
-        <v>-781.4899156720096</v>
+        <v>3983050.649874355</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>65.30702007862149</v>
+        <v>1116401.407459468</v>
       </c>
       <c r="G48">
-        <v>665.7831568819064</v>
+        <v>4841760.360736687</v>
       </c>
       <c r="H48">
-        <v>2391.496754816672</v>
+        <v>3986306.585794499</v>
       </c>
       <c r="I48">
-        <v>1155.216243561799</v>
+        <v>1117341.352868421</v>
       </c>
       <c r="J48">
-        <v>-267.9724215694894</v>
+        <v>4840987.619443645</v>
       </c>
       <c r="K48">
-        <v>-1004.145438660067</v>
+        <v>3982672.755500277</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>64.48577133426679</v>
+        <v>1116400.911966639</v>
       </c>
       <c r="G49">
-        <v>685.9926393587629</v>
+        <v>4841776.873527923</v>
       </c>
       <c r="H49">
-        <v>2400.841695944568</v>
+        <v>3986314.169504014</v>
       </c>
       <c r="I49">
-        <v>1262.147154518597</v>
+        <v>1117432.023547467</v>
       </c>
       <c r="J49">
-        <v>-322.7571269351561</v>
+        <v>4840938.967832115</v>
       </c>
       <c r="K49">
-        <v>-1235.726573840194</v>
+        <v>3982279.71244007</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>63.69473940976395</v>
+        <v>1116400.434704849</v>
       </c>
       <c r="G50">
-        <v>706.2021218356191</v>
+        <v>4841793.386319159</v>
       </c>
       <c r="H50">
-        <v>2409.956218652286</v>
+        <v>3986321.566221836</v>
       </c>
       <c r="I50">
-        <v>1371.711140783072</v>
+        <v>1117524.926908569</v>
       </c>
       <c r="J50">
-        <v>-377.5418323008227</v>
+        <v>4840890.316220584</v>
       </c>
       <c r="K50">
-        <v>-1476.233321212389</v>
+        <v>3981871.520693734</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>62.93211598157904</v>
+        <v>1116399.974583063</v>
       </c>
       <c r="G51">
-        <v>726.4116043124753</v>
+        <v>4841809.899110395</v>
       </c>
       <c r="H51">
-        <v>2418.851412906689</v>
+        <v>3986328.784947817</v>
       </c>
       <c r="I51">
-        <v>1483.97303941229</v>
+        <v>1117620.117929468</v>
       </c>
       <c r="J51">
-        <v>-432.3265376664894</v>
+        <v>4840841.664609054</v>
       </c>
       <c r="K51">
-        <v>-1725.665680776653</v>
+        <v>3981448.18026127</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>62.19624066765558</v>
+        <v>1116399.530599503</v>
       </c>
       <c r="G52">
-        <v>746.6210867893317</v>
+        <v>4841826.41190163</v>
       </c>
       <c r="H52">
-        <v>2427.537586818085</v>
+        <v>3986335.834047308</v>
       </c>
       <c r="I52">
-        <v>1598.999284016201</v>
+        <v>1117717.652941683</v>
       </c>
       <c r="J52">
-        <v>-487.111243032156</v>
+        <v>4840793.012997525</v>
       </c>
       <c r="K52">
-        <v>-1984.023652532985</v>
+        <v>3981009.691142676</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>61.48558582374154</v>
+        <v>1116399.101832481</v>
       </c>
       <c r="G53">
-        <v>766.830569266188</v>
+        <v>4841842.924692866</v>
       </c>
       <c r="H53">
-        <v>2436.024338451672</v>
+        <v>3986342.721309436</v>
       </c>
       <c r="I53">
-        <v>1716.857944071276</v>
+        <v>1117817.589663843</v>
       </c>
       <c r="J53">
-        <v>-541.8959483978222</v>
+        <v>4840744.361385996</v>
       </c>
       <c r="K53">
-        <v>-2251.307236481383</v>
+        <v>3980556.053337955</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>60.79874320647586</v>
+        <v>1116398.687432345</v>
       </c>
       <c r="G54">
-        <v>787.0400517430443</v>
+        <v>4841859.437484102</v>
       </c>
       <c r="H54">
-        <v>2444.320619579101</v>
+        <v>3986349.453998842</v>
       </c>
       <c r="I54">
-        <v>1837.61876520223</v>
+        <v>1117919.987235847</v>
       </c>
       <c r="J54">
-        <v>-596.6806537634889</v>
+        <v>4840695.709774464</v>
       </c>
       <c r="K54">
-        <v>-2527.516432621851</v>
+        <v>3980087.266847104</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G55">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H55">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I55">
-        <v>-482.9365047332674</v>
+        <v>1114860.292840542</v>
       </c>
       <c r="J55">
-        <v>2086.952407804985</v>
+        <v>4843230.539731423</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.159422967</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G56">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H56">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I56">
-        <v>-473.4020521967801</v>
+        <v>1114889.906808727</v>
       </c>
       <c r="J56">
-        <v>2036.185633199393</v>
+        <v>4843181.888070208</v>
       </c>
       <c r="K56">
-        <v>413.4618989322374</v>
+        <v>3984674.955478857</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G57">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H57">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I57">
-        <v>-463.6328225381172</v>
+        <v>1114920.249993635</v>
       </c>
       <c r="J57">
-        <v>1985.418858593801</v>
+        <v>4843133.236408992</v>
       </c>
       <c r="K57">
-        <v>806.3066923424077</v>
+        <v>3984963.602870849</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G58">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H58">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I58">
-        <v>-453.6230345866362</v>
+        <v>1114951.340351555</v>
       </c>
       <c r="J58">
-        <v>1934.652083988209</v>
+        <v>4843084.584747776</v>
       </c>
       <c r="K58">
-        <v>1178.534380230514</v>
+        <v>3985237.101598944</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G59">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H59">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I59">
-        <v>-443.3667648156862</v>
+        <v>1114983.196280937</v>
       </c>
       <c r="J59">
-        <v>1883.885309382618</v>
+        <v>4843035.933086561</v>
       </c>
       <c r="K59">
-        <v>1530.144962596553</v>
+        <v>3985495.451663141</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G60">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H60">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I60">
-        <v>-432.8579438372214</v>
+        <v>1115015.836633273</v>
       </c>
       <c r="J60">
-        <v>1833.118534777026</v>
+        <v>4842987.281425346</v>
       </c>
       <c r="K60">
-        <v>1861.138439440528</v>
+        <v>3985738.65306344</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G61">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H61">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I61">
-        <v>-422.0903528101001</v>
+        <v>1115049.280724257</v>
       </c>
       <c r="J61">
-        <v>1782.351760171434</v>
+        <v>4842938.629764129</v>
       </c>
       <c r="K61">
-        <v>2171.514810762438</v>
+        <v>3985966.705799841</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G62">
-        <v>-100.8398827754679</v>
+        <v>4841119.998094448</v>
       </c>
       <c r="H62">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I62">
-        <v>-411.0576197599381</v>
+        <v>1115083.548345213</v>
       </c>
       <c r="J62">
-        <v>1731.584985565842</v>
+        <v>4842889.978102914</v>
       </c>
       <c r="K62">
-        <v>2461.274076562282</v>
+        <v>3986179.609872345</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>240.852031207152</v>
+        <v>1116579.288336766</v>
       </c>
       <c r="G63">
-        <v>-84.18837967327859</v>
+        <v>4841136.510898087</v>
       </c>
       <c r="H63">
-        <v>950.4451052763324</v>
+        <v>3985226.052137558</v>
       </c>
       <c r="I63">
-        <v>-399.7532158083441</v>
+        <v>1115118.659774809</v>
       </c>
       <c r="J63">
-        <v>1680.81821096025</v>
+        <v>4842841.326441699</v>
       </c>
       <c r="K63">
-        <v>2730.416236840059</v>
+        <v>3986377.36528095</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>186.9292731617703</v>
+        <v>1116530.607738794</v>
       </c>
       <c r="G64">
-        <v>-67.53687657108924</v>
+        <v>4841153.023701726</v>
       </c>
       <c r="H64">
-        <v>1170.941974102278</v>
+        <v>3985425.306430526</v>
       </c>
       <c r="I64">
-        <v>-388.170451309303</v>
+        <v>1115154.635791058</v>
       </c>
       <c r="J64">
-        <v>1630.051436354659</v>
+        <v>4842792.674780483</v>
       </c>
       <c r="K64">
-        <v>2978.941291595771</v>
+        <v>3986559.972025658</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>155.2523578676582</v>
+        <v>1116502.010329568</v>
       </c>
       <c r="G65">
-        <v>-50.8853734688999</v>
+        <v>4841169.536505365</v>
       </c>
       <c r="H65">
-        <v>1302.281185812991</v>
+        <v>3985543.992477669</v>
       </c>
       <c r="I65">
-        <v>-376.302471890421</v>
+        <v>1115191.497683609</v>
       </c>
       <c r="J65">
-        <v>1579.284661749067</v>
+        <v>4842744.023119267</v>
       </c>
       <c r="K65">
-        <v>3206.849240829418</v>
+        <v>3986727.430106468</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>135.2555649979286</v>
+        <v>1116483.957546852</v>
       </c>
       <c r="G66">
-        <v>-34.23387036671055</v>
+        <v>4841186.049309004</v>
       </c>
       <c r="H66">
-        <v>1396.140443544675</v>
+        <v>3985628.809373879</v>
       </c>
       <c r="I66">
-        <v>-364.1422543966897</v>
+        <v>1115229.267266352</v>
       </c>
       <c r="J66">
-        <v>1528.517887143475</v>
+        <v>4842695.371458052</v>
       </c>
       <c r="K66">
-        <v>3414.140084541</v>
+        <v>3986879.73952338</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>121.3098828223268</v>
+        <v>1116471.367609467</v>
       </c>
       <c r="G67">
-        <v>-17.5823672645212</v>
+        <v>4841202.562112642</v>
       </c>
       <c r="H67">
-        <v>1469.228597255203</v>
+        <v>3985694.856245516</v>
       </c>
       <c r="I67">
-        <v>-351.6826027343704</v>
+        <v>1115267.966890323</v>
       </c>
       <c r="J67">
-        <v>1477.751112537883</v>
+        <v>4842646.719796836</v>
       </c>
       <c r="K67">
-        <v>3600.813822730516</v>
+        <v>3987016.900276395</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>110.9059862937966</v>
+        <v>1116461.975139152</v>
       </c>
       <c r="G68">
-        <v>-0.9308641623318651</v>
+        <v>4841219.074916281</v>
       </c>
       <c r="H68">
-        <v>1529.093464378087</v>
+        <v>3985748.953756451</v>
       </c>
       <c r="I68">
-        <v>-338.9161436125359</v>
+        <v>1115307.619456931</v>
       </c>
       <c r="J68">
-        <v>1426.984337932291</v>
+        <v>4842598.068135621</v>
       </c>
       <c r="K68">
-        <v>3766.870455397965</v>
+        <v>3987138.912365511</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>102.7715920695635</v>
+        <v>1116454.631538986</v>
       </c>
       <c r="G69">
-        <v>15.72063893985749</v>
+        <v>4841235.587719919</v>
       </c>
       <c r="H69">
-        <v>1579.794636907671</v>
+        <v>3985794.770399285</v>
       </c>
       <c r="I69">
-        <v>-325.8353221797532</v>
+        <v>1115348.248431511</v>
       </c>
       <c r="J69">
-        <v>1376.217563326699</v>
+        <v>4842549.416474405</v>
       </c>
       <c r="K69">
-        <v>3912.30998254335</v>
+        <v>3987245.77579073</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>96.19027485749437</v>
+        <v>1116448.690031745</v>
       </c>
       <c r="G70">
-        <v>32.37214204204683</v>
+        <v>4841252.100523558</v>
       </c>
       <c r="H70">
-        <v>1623.768670017419</v>
+        <v>3985834.507992489</v>
       </c>
       <c r="I70">
-        <v>-312.4323975533232</v>
+        <v>1115389.877857214</v>
       </c>
       <c r="J70">
-        <v>1325.450788721107</v>
+        <v>4842500.764813189</v>
       </c>
       <c r="K70">
-        <v>4037.132404166669</v>
+        <v>3987337.490552051</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>90.72543651678176</v>
+        <v>1116443.756463659</v>
       </c>
       <c r="G71">
-        <v>49.02364514423617</v>
+        <v>4841268.613327198</v>
       </c>
       <c r="H71">
-        <v>1662.593389860115</v>
+        <v>3985869.592355106</v>
       </c>
       <c r="I71">
-        <v>-298.699438238432</v>
+        <v>1115432.532369225</v>
       </c>
       <c r="J71">
-        <v>1274.684014115515</v>
+        <v>4842452.113151974</v>
       </c>
       <c r="K71">
-        <v>4141.337720267923</v>
+        <v>3987414.056649473</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>86.09439720102381</v>
+        <v>1116439.57563591</v>
       </c>
       <c r="G72">
-        <v>65.67514824642554</v>
+        <v>4841285.126130836</v>
       </c>
       <c r="H72">
-        <v>1697.349326774169</v>
+        <v>3985900.999919636</v>
       </c>
       <c r="I72">
-        <v>-284.6283174345025</v>
+        <v>1115476.237209354</v>
       </c>
       <c r="J72">
-        <v>1223.917239509924</v>
+        <v>4842403.461490759</v>
       </c>
       <c r="K72">
-        <v>4224.925930847112</v>
+        <v>3987475.474082999</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>82.10520863639032</v>
+        <v>1116435.974260687</v>
       </c>
       <c r="G73">
-        <v>82.32665134861487</v>
+        <v>4841301.638934474</v>
       </c>
       <c r="H73">
-        <v>1728.808969706823</v>
+        <v>3985929.428753763</v>
       </c>
       <c r="I73">
-        <v>-270.2107082259699</v>
+        <v>1115521.018240962</v>
       </c>
       <c r="J73">
-        <v>1173.150464904332</v>
+        <v>4842354.809829542</v>
       </c>
       <c r="K73">
-        <v>4287.897035904234</v>
+        <v>3987521.742852626</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>78.62244089117331</v>
+        <v>1116432.830074029</v>
       </c>
       <c r="G74">
-        <v>98.97815445080421</v>
+        <v>4841318.151738114</v>
       </c>
       <c r="H74">
-        <v>1757.543761396161</v>
+        <v>3985955.395247674</v>
       </c>
       <c r="I74">
-        <v>-255.4380786546346</v>
+        <v>1115566.901964277</v>
       </c>
       <c r="J74">
-        <v>1122.38369029874</v>
+        <v>4842306.158168327</v>
       </c>
       <c r="K74">
-        <v>4330.251035439291</v>
+        <v>3987552.862958356</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>75.54748614457678</v>
+        <v>1116430.054054381</v>
       </c>
       <c r="G75">
-        <v>115.6296575529936</v>
+        <v>4841334.664541752</v>
       </c>
       <c r="H75">
-        <v>1783.98832809607</v>
+        <v>3985979.29215591</v>
       </c>
       <c r="I75">
-        <v>-240.301686670675</v>
+        <v>1115613.915532066</v>
       </c>
       <c r="J75">
-        <v>1071.616915693148</v>
+        <v>4842257.506507112</v>
       </c>
       <c r="K75">
-        <v>4351.987929452283</v>
+        <v>3987568.834400188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>72.80663469062948</v>
+        <v>1116427.579657808</v>
       </c>
       <c r="G76">
-        <v>132.2811606551829</v>
+        <v>4841351.177345391</v>
       </c>
       <c r="H76">
-        <v>1808.480945798619</v>
+        <v>3986001.425165096</v>
       </c>
       <c r="I76">
-        <v>-224.7925749593357</v>
+        <v>1115662.08676571</v>
       </c>
       <c r="J76">
-        <v>1020.850141087556</v>
+        <v>4842208.854845896</v>
       </c>
       <c r="K76">
-        <v>4353.107717943209</v>
+        <v>3987569.657178122</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>70.34354679933044</v>
+        <v>1116425.356021708</v>
       </c>
       <c r="G77">
-        <v>148.9326637573723</v>
+        <v>4841367.690149031</v>
       </c>
       <c r="H77">
-        <v>1831.290070217211</v>
+        <v>3986022.036868035</v>
       </c>
       <c r="I77">
-        <v>-208.9015656402259</v>
+        <v>1115711.444171665</v>
       </c>
       <c r="J77">
-        <v>970.0833664819643</v>
+        <v>4842160.20318468</v>
       </c>
       <c r="K77">
-        <v>4333.610400912069</v>
+        <v>3987555.331292158</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>68.11432803201666</v>
+        <v>1116423.343518888</v>
       </c>
       <c r="G78">
-        <v>165.5841668595616</v>
+        <v>4841384.202952669</v>
       </c>
       <c r="H78">
-        <v>1852.632320665393</v>
+        <v>3986041.323015027</v>
       </c>
       <c r="I78">
-        <v>-192.6192548360933</v>
+        <v>1115762.016958335</v>
       </c>
       <c r="J78">
-        <v>919.3165918763725</v>
+        <v>4842111.551523465</v>
       </c>
       <c r="K78">
-        <v>4293.495978358864</v>
+        <v>3987525.856742296</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>66.08420810132226</v>
+        <v>1116421.510759294</v>
       </c>
       <c r="G79">
-        <v>182.235669961751</v>
+        <v>4841400.715756307</v>
       </c>
       <c r="H79">
-        <v>1872.685022363535</v>
+        <v>3986059.443847854</v>
       </c>
       <c r="I79">
-        <v>-175.9360071078604</v>
+        <v>1115813.83505335</v>
       </c>
       <c r="J79">
-        <v>868.5498172707806</v>
+        <v>4842062.899862249</v>
       </c>
       <c r="K79">
-        <v>4232.764450283593</v>
+        <v>3987481.233528536</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>64.22524130112217</v>
+        <v>1116419.83251399</v>
       </c>
       <c r="G80">
-        <v>198.8871730639403</v>
+        <v>4841417.228559946</v>
       </c>
       <c r="H80">
-        <v>1891.595170744645</v>
+        <v>3986076.532200471</v>
       </c>
       <c r="I80">
-        <v>-158.8419497526262</v>
+        <v>1115866.929121283</v>
       </c>
       <c r="J80">
-        <v>817.7830426651886</v>
+        <v>4842014.248201034</v>
       </c>
       <c r="K80">
-        <v>4151.415816686257</v>
+        <v>3987421.461650879</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>62.51467713295748</v>
+        <v>1116418.288244194</v>
       </c>
       <c r="G81">
-        <v>215.5386761661296</v>
+        <v>4841433.741363585</v>
       </c>
       <c r="H81">
-        <v>1909.485976781247</v>
+        <v>3986092.699413759</v>
       </c>
       <c r="I81">
-        <v>-141.3269669612638</v>
+        <v>1115921.330581793</v>
       </c>
       <c r="J81">
-        <v>767.016268059597</v>
+        <v>4841965.596539819</v>
       </c>
       <c r="K81">
-        <v>4049.450077566855</v>
+        <v>3987346.541109324</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>60.93378208478957</v>
+        <v>1116416.861037592</v>
       </c>
       <c r="G82">
-        <v>232.190179268319</v>
+        <v>4841450.254167224</v>
       </c>
       <c r="H82">
-        <v>1926.461736686166</v>
+        <v>3986108.039736075</v>
       </c>
       <c r="I82">
-        <v>-123.3806938321527</v>
+        <v>1115977.07162822</v>
       </c>
       <c r="J82">
-        <v>716.249493454005</v>
+        <v>4841916.944878603</v>
       </c>
       <c r="K82">
-        <v>3926.867232925388</v>
+        <v>3987256.471903871</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>59.46697210945263</v>
+        <v>1116415.536825157</v>
       </c>
       <c r="G83">
-        <v>248.8416823705083</v>
+        <v>4841466.766970863</v>
       </c>
       <c r="H83">
-        <v>1942.611515770252</v>
+        <v>3986122.633652216</v>
       </c>
       <c r="I83">
-        <v>-104.9925102375058</v>
+        <v>1116034.185246634</v>
       </c>
       <c r="J83">
-        <v>665.4827188484131</v>
+        <v>4841868.293217388</v>
       </c>
       <c r="K83">
-        <v>3783.667282761855</v>
+        <v>3987151.254034521</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>58.10116346435748</v>
+        <v>1116414.303795098</v>
       </c>
       <c r="G84">
-        <v>265.4931854726977</v>
+        <v>4841483.279774502</v>
       </c>
       <c r="H84">
-        <v>1958.011976947203</v>
+        <v>3986136.550439422</v>
       </c>
       <c r="I84">
-        <v>-86.1515345386595</v>
+        <v>1116092.705235358</v>
       </c>
       <c r="J84">
-        <v>614.7159442428214</v>
+        <v>4841819.641556172</v>
       </c>
       <c r="K84">
-        <v>3619.850227076257</v>
+        <v>3987030.887501272</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>56.8252798355335</v>
+        <v>1116413.151947896</v>
       </c>
       <c r="G85">
-        <v>282.144688574887</v>
+        <v>4841499.792578141</v>
       </c>
       <c r="H85">
-        <v>1972.729581671172</v>
+        <v>3986149.850156281</v>
       </c>
       <c r="I85">
-        <v>-66.84661714660891</v>
+        <v>1116152.666224967</v>
       </c>
       <c r="J85">
-        <v>563.9491696372294</v>
+        <v>4841770.989894956</v>
       </c>
       <c r="K85">
-        <v>3435.416065868593</v>
+        <v>3986895.372304126</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>55.6298731676038</v>
+        <v>1116412.072753998</v>
       </c>
       <c r="G86">
-        <v>298.7961916770764</v>
+        <v>4841516.305381779</v>
       </c>
       <c r="H86">
-        <v>1986.822323319537</v>
+        <v>3986162.585209109</v>
       </c>
       <c r="I86">
-        <v>-47.0663339239773</v>
+        <v>1116214.103698782</v>
       </c>
       <c r="J86">
-        <v>513.1823950316377</v>
+        <v>4841722.338233741</v>
       </c>
       <c r="K86">
-        <v>3230.364799138864</v>
+        <v>3986744.708443081</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>54.50682846113069</v>
+        <v>1116411.058887315</v>
       </c>
       <c r="G87">
-        <v>315.4476947792657</v>
+        <v>4841532.818185418</v>
       </c>
       <c r="H87">
-        <v>2000.341107368664</v>
+        <v>3986174.801599173</v>
       </c>
       <c r="I87">
-        <v>-26.79897942451526</v>
+        <v>1116277.054013869</v>
       </c>
       <c r="J87">
-        <v>462.4156204260458</v>
+        <v>4841673.686572526</v>
       </c>
       <c r="K87">
-        <v>3004.696426887069</v>
+        <v>3986578.895918139</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>53.44913142203487</v>
+        <v>1116410.104015454</v>
       </c>
       <c r="G88">
-        <v>332.0991978814551</v>
+        <v>4841549.330989056</v>
       </c>
       <c r="H88">
-        <v>2013.330861357797</v>
+        <v>3986186.539925712</v>
       </c>
       <c r="I88">
-        <v>-6.032559966128291</v>
+        <v>1116341.554422551</v>
       </c>
       <c r="J88">
-        <v>411.6488458204539</v>
+        <v>4841625.034911309</v>
       </c>
       <c r="K88">
-        <v>2758.410949113208</v>
+        <v>3986397.934729299</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>52.45068374383843</v>
+        <v>1116409.202632962</v>
       </c>
       <c r="G89">
-        <v>348.7507009836444</v>
+        <v>4841565.843792696</v>
       </c>
       <c r="H89">
-        <v>2025.831435738972</v>
+        <v>3986197.8362</v>
       </c>
       <c r="I89">
-        <v>15.24521346666592</v>
+        <v>1116407.643094457</v>
       </c>
       <c r="J89">
-        <v>360.8820712148622</v>
+        <v>4841576.383250094</v>
       </c>
       <c r="K89">
-        <v>2491.508365817283</v>
+        <v>3986201.824876562</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>51.50615490136897</v>
+        <v>1116408.349927527</v>
       </c>
       <c r="G90">
-        <v>365.4022040858338</v>
+        <v>4841582.356596335</v>
       </c>
       <c r="H90">
-        <v>2037.878341177042</v>
+        <v>3986208.722511621</v>
       </c>
       <c r="I90">
-        <v>37.04693249505004</v>
+        <v>1116475.359139109</v>
       </c>
       <c r="J90">
-        <v>310.1152966092702</v>
+        <v>4841527.731588879</v>
       </c>
       <c r="K90">
-        <v>2203.988676999291</v>
+        <v>3985990.566359926</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>50.61086222572013</v>
+        <v>1116407.541671711</v>
       </c>
       <c r="G91">
-        <v>382.0537071880231</v>
+        <v>4841598.869399973</v>
       </c>
       <c r="H91">
-        <v>2049.503356686</v>
+        <v>3986219.227578012</v>
       </c>
       <c r="I91">
-        <v>59.38549879729459</v>
+        <v>1116544.742629063</v>
       </c>
       <c r="J91">
-        <v>259.3485220036785</v>
+        <v>4841479.079927663</v>
       </c>
       <c r="K91">
-        <v>1895.851882659235</v>
+        <v>3985764.159179393</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>49.7606730984411</v>
+        <v>1116406.774134652</v>
       </c>
       <c r="G92">
-        <v>398.7052102902125</v>
+        <v>4841615.382203612</v>
       </c>
       <c r="H92">
-        <v>2060.735034837944</v>
+        <v>3986229.377201002</v>
       </c>
       <c r="I92">
-        <v>82.27413174362752</v>
+        <v>1116615.834623625</v>
       </c>
       <c r="J92">
-        <v>208.5817473980865</v>
+        <v>4841430.428266447</v>
       </c>
       <c r="K92">
-        <v>1567.097982797111</v>
+        <v>3985522.603334961</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>48.95192460136887</v>
+        <v>1116406.044009527</v>
       </c>
       <c r="G93">
-        <v>415.3567133924018</v>
+        <v>4841631.895007251</v>
       </c>
       <c r="H93">
-        <v>2071.599124266641</v>
+        <v>3986239.194648612</v>
       </c>
       <c r="I93">
-        <v>105.7263762191079</v>
+        <v>1116688.67719315</v>
       </c>
       <c r="J93">
-        <v>157.8149727924946</v>
+        <v>4841381.776605232</v>
       </c>
       <c r="K93">
-        <v>1217.726977412923</v>
+        <v>3985265.898826633</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>48.18135705708108</v>
+        <v>1116405.348353552</v>
       </c>
       <c r="G94">
-        <v>432.0082164945911</v>
+        <v>4841648.407810889</v>
       </c>
       <c r="H94">
-        <v>2082.118925199098</v>
+        <v>3986248.700976335</v>
       </c>
       <c r="I94">
-        <v>129.7561106391273</v>
+        <v>1116763.313443935</v>
       </c>
       <c r="J94">
-        <v>107.0481981869029</v>
+        <v>4841333.124944016</v>
       </c>
       <c r="K94">
-        <v>847.73886650667</v>
+        <v>3984994.045654406</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>47.44605870924367</v>
+        <v>1116404.68453804</v>
       </c>
       <c r="G95">
-        <v>448.6597195967805</v>
+        <v>4841664.920614528</v>
       </c>
       <c r="H95">
-        <v>2092.315590363707</v>
+        <v>3986257.915299054</v>
       </c>
       <c r="I95">
-        <v>154.37755516229</v>
+        <v>1116839.787543732</v>
       </c>
       <c r="J95">
-        <v>56.28142358131097</v>
+        <v>4841284.473282801</v>
       </c>
       <c r="K95">
-        <v>457.1336500783502</v>
+        <v>3984707.043818281</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>46.74341940190515</v>
+        <v>1116404.050206583</v>
       </c>
       <c r="G96">
-        <v>465.3112226989699</v>
+        <v>4841681.433418168</v>
       </c>
       <c r="H96">
-        <v>2102.208381046207</v>
+        <v>3986266.855022432</v>
       </c>
       <c r="I96">
-        <v>179.6052801055216</v>
+        <v>1116918.144747882</v>
       </c>
       <c r="J96">
-        <v>5.514648975719034</v>
+        <v>4841235.821621585</v>
       </c>
       <c r="K96">
-        <v>45.91132812796523</v>
+        <v>3984404.893318259</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>46.07109157781025</v>
+        <v>1116403.443239846</v>
       </c>
       <c r="G97">
-        <v>481.9627258011592</v>
+        <v>4841697.946221806</v>
       </c>
       <c r="H97">
-        <v>2111.81488608434</v>
+        <v>3986275.536040803</v>
       </c>
       <c r="I97">
-        <v>205.4542145663988</v>
+        <v>1116998.431426097</v>
       </c>
       <c r="J97">
-        <v>-45.25212562987267</v>
+        <v>4841187.169960369</v>
       </c>
       <c r="K97">
-        <v>-385.9280993444841</v>
+        <v>3984087.594154338</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>45.42695726747943</v>
+        <v>1116402.861725759</v>
       </c>
       <c r="G98">
-        <v>498.6142289033485</v>
+        <v>4841714.459025444</v>
       </c>
       <c r="H98">
-        <v>2121.151210057585</v>
+        <v>3986283.972907241</v>
       </c>
       <c r="I98">
-        <v>231.9396552577915</v>
+        <v>1117080.6950899</v>
       </c>
       <c r="J98">
-        <v>-96.01890023546461</v>
+        <v>4841138.518299154</v>
       </c>
       <c r="K98">
-        <v>-838.3846323390002</v>
+        <v>3983755.14632652</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>44.80910001132042</v>
+        <v>1116402.303934174</v>
       </c>
       <c r="G99">
-        <v>515.2657320055379</v>
+        <v>4841730.971829083</v>
       </c>
       <c r="H99">
-        <v>2130.232135729819</v>
+        <v>3986292.178980343</v>
       </c>
       <c r="I99">
-        <v>259.0772755600514</v>
+        <v>1117164.984420743</v>
       </c>
       <c r="J99">
-        <v>-146.7856748410566</v>
+        <v>4841089.866637938</v>
       </c>
       <c r="K99">
-        <v>-1311.458270855583</v>
+        <v>3983407.549834805</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>44.21578086678554</v>
+        <v>1116401.768295201</v>
       </c>
       <c r="G100">
-        <v>531.9172351077273</v>
+        <v>4841747.484632722</v>
       </c>
       <c r="H100">
-        <v>2139.071264859644</v>
+        <v>3986300.166551481</v>
       </c>
       <c r="I100">
-        <v>286.8831347961014</v>
+        <v>1117251.349298813</v>
       </c>
       <c r="J100">
-        <v>-197.5524494466485</v>
+        <v>4841041.214976722</v>
       </c>
       <c r="K100">
-        <v>-1805.14901489423</v>
+        <v>3983044.804679191</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>43.64541781641448</v>
+        <v>1116401.25338062</v>
       </c>
       <c r="G101">
-        <v>548.5687382099165</v>
+        <v>4841763.997436361</v>
       </c>
       <c r="H101">
-        <v>2147.681140745801</v>
+        <v>3986307.946955535</v>
       </c>
       <c r="I101">
-        <v>315.3736877349176</v>
+        <v>1117339.840832552</v>
       </c>
       <c r="J101">
-        <v>-248.3192240522399</v>
+        <v>4840992.563315507</v>
       </c>
       <c r="K101">
-        <v>-2319.456864454939</v>
+        <v>3982666.910859679</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>43.0965680214703</v>
+        <v>1116400.75788786</v>
       </c>
       <c r="G102">
-        <v>565.2202413121059</v>
+        <v>4841780.51024</v>
       </c>
       <c r="H102">
-        <v>2156.073355278955</v>
+        <v>3986315.53066764</v>
       </c>
       <c r="I102">
-        <v>344.5657943290244</v>
+        <v>1117430.511388898</v>
       </c>
       <c r="J102">
-        <v>-299.0859986578319</v>
+        <v>4840943.911654292</v>
       </c>
       <c r="K102">
-        <v>-2854.381819537718</v>
+        <v>3982273.86837627</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>42.56791246790983</v>
+        <v>1116400.280626136</v>
       </c>
       <c r="G103">
-        <v>581.8717444142952</v>
+        <v>4841797.023043639</v>
       </c>
       <c r="H103">
-        <v>2164.258642792659</v>
+        <v>3986322.927387988</v>
       </c>
       <c r="I103">
-        <v>374.4767296917652</v>
+        <v>1117523.414624279</v>
       </c>
       <c r="J103">
-        <v>-349.8527732634238</v>
+        <v>4840895.259993075</v>
       </c>
       <c r="K103">
-        <v>-3409.923880142562</v>
+        <v>3981865.677228963</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>42.05824263272755</v>
+        <v>1116399.820504413</v>
       </c>
       <c r="G104">
-        <v>598.5232475164846</v>
+        <v>4841813.535847278</v>
       </c>
       <c r="H104">
-        <v>2172.24696261997</v>
+        <v>3986330.146116433</v>
       </c>
       <c r="I104">
-        <v>405.1241943202575</v>
+        <v>1117618.605516362</v>
       </c>
       <c r="J104">
-        <v>-400.6195478690158</v>
+        <v>4840846.60833186</v>
       </c>
       <c r="K104">
-        <v>-3986.083046269472</v>
+        <v>3981442.337417758</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>41.5664488638753</v>
+        <v>1116399.376520915</v>
       </c>
       <c r="G105">
-        <v>615.174750618674</v>
+        <v>4841830.048650916</v>
       </c>
       <c r="H105">
-        <v>2180.047571948488</v>
+        <v>3986337.195218331</v>
       </c>
       <c r="I105">
-        <v>436.5263245700764</v>
+        <v>1117716.140396588</v>
       </c>
       <c r="J105">
-        <v>-451.3863224746077</v>
+        <v>4840797.956670645</v>
       </c>
       <c r="K105">
-        <v>-4582.859317918447</v>
+        <v>3981003.848942655</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>41.09151021947618</v>
+        <v>1116398.947753952</v>
       </c>
       <c r="G106">
-        <v>631.8262537208633</v>
+        <v>4841846.561454555</v>
       </c>
       <c r="H106">
-        <v>2187.66909031055</v>
+        <v>3986344.082482811</v>
       </c>
       <c r="I106">
-        <v>468.7017033878662</v>
+        <v>1117816.07698351</v>
       </c>
       <c r="J106">
-        <v>-502.1530970801992</v>
+        <v>4840749.305009429</v>
       </c>
       <c r="K106">
-        <v>-5200.252695089483</v>
+        <v>3980550.211803655</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,31 +4158,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>40.63248555461487</v>
+        <v>1116398.533353873</v>
       </c>
       <c r="G107">
-        <v>648.4777568230526</v>
+        <v>4841863.074258194</v>
       </c>
       <c r="H107">
-        <v>2195.119556835257</v>
+        <v>3986350.815174516</v>
       </c>
       <c r="I107">
-        <v>501.6693713082389</v>
+        <v>1117918.474416944</v>
       </c>
       <c r="J107">
-        <v>-552.9198716857911</v>
+        <v>4840700.653348213</v>
       </c>
       <c r="K107">
-        <v>-5838.26317778259</v>
+        <v>3980081.426000756</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4181,34 +4190,34 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G108">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H108">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I108">
-        <v>-1290.905682876226</v>
+        <v>1114862.724229147</v>
       </c>
       <c r="J108">
-        <v>2275.11856043839</v>
+        <v>4843226.837419223</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984364.984319556</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4216,34 +4225,34 @@
         <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G109">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H109">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I109">
-        <v>-1265.419767353515</v>
+        <v>1114892.338261918</v>
       </c>
       <c r="J109">
-        <v>2219.774494743928</v>
+        <v>4843178.185795199</v>
       </c>
       <c r="K109">
-        <v>183.0412273537326</v>
+        <v>3984668.779904613</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4251,34 +4260,34 @@
         <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G110">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H110">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I110">
-        <v>-1239.30628460767</v>
+        <v>1114922.681513</v>
       </c>
       <c r="J110">
-        <v>2164.430429049467</v>
+        <v>4843129.534171173</v>
       </c>
       <c r="K110">
-        <v>356.955180080743</v>
+        <v>3984957.426849251</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4286,34 +4295,34 @@
         <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G111">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H111">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I111">
-        <v>-1212.549781373173</v>
+        <v>1114953.771938726</v>
       </c>
       <c r="J111">
-        <v>2109.086363355005</v>
+        <v>4843080.882547149</v>
       </c>
       <c r="K111">
-        <v>521.7418581810324</v>
+        <v>3985230.925153469</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4321,34 +4330,34 @@
         <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G112">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H112">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I112">
-        <v>-1185.134423862057</v>
+        <v>1114985.627937582</v>
       </c>
       <c r="J112">
-        <v>2053.742297660543</v>
+        <v>4843032.230923125</v>
       </c>
       <c r="K112">
-        <v>677.4012616545999</v>
+        <v>3985489.274817267</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4356,34 +4365,34 @@
         <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G113">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H113">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I113">
-        <v>-1157.043988393896</v>
+        <v>1115018.268361103</v>
       </c>
       <c r="J113">
-        <v>1998.398231966081</v>
+        <v>4842983.5792991</v>
       </c>
       <c r="K113">
-        <v>823.9333905014466</v>
+        <v>3985732.475840645</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4391,34 +4400,34 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G114">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H114">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I114">
-        <v>-1128.261851795059</v>
+        <v>1115051.712525024</v>
       </c>
       <c r="J114">
-        <v>1943.054166271619</v>
+        <v>4842934.927675074</v>
       </c>
       <c r="K114">
-        <v>961.3382447215716</v>
+        <v>3985960.528223603</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4426,34 +4435,34 @@
         <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G115">
-        <v>-64.25775373224636</v>
+        <v>4841123.741866351</v>
       </c>
       <c r="H115">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I115">
-        <v>-1098.770981561555</v>
+        <v>1115085.980220714</v>
       </c>
       <c r="J115">
-        <v>1887.710100577157</v>
+        <v>4842886.27605105</v>
       </c>
       <c r="K115">
-        <v>1089.615824314975</v>
+        <v>3986173.431966141</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4461,34 +4470,34 @@
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>284.2081226433262</v>
+        <v>1116578.156253388</v>
       </c>
       <c r="G116">
-        <v>-53.64698985428077</v>
+        <v>4841140.25468276</v>
       </c>
       <c r="H116">
-        <v>991.994425250269</v>
+        <v>3985226.890072512</v>
       </c>
       <c r="I116">
-        <v>-1068.553925779655</v>
+        <v>1115121.091726885</v>
       </c>
       <c r="J116">
-        <v>1832.366034882696</v>
+        <v>4842837.624427025</v>
       </c>
       <c r="K116">
-        <v>1208.766129281657</v>
+        <v>3986371.187068259</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4496,34 +4505,34 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>220.5786578843296</v>
+        <v>1116529.475704773</v>
       </c>
       <c r="G117">
-        <v>-43.03622597631518</v>
+        <v>4841156.767499167</v>
       </c>
       <c r="H117">
-        <v>1222.130456722475</v>
+        <v>3985426.144407375</v>
       </c>
       <c r="I117">
-        <v>-1037.592802798307</v>
+        <v>1115157.067821593</v>
       </c>
       <c r="J117">
-        <v>1777.021969188234</v>
+        <v>4842788.972803</v>
       </c>
       <c r="K117">
-        <v>1318.789159621617</v>
+        <v>3986553.793529957</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4531,34 +4540,34 @@
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>183.1995393369418</v>
+        <v>1116500.878324541</v>
       </c>
       <c r="G118">
-        <v>-32.42546209834961</v>
+        <v>4841173.280315577</v>
       </c>
       <c r="H118">
-        <v>1359.211246670793</v>
+        <v>3985544.830479473</v>
       </c>
       <c r="I118">
-        <v>-1005.869290647254</v>
+        <v>1115193.929794536</v>
       </c>
       <c r="J118">
-        <v>1721.677903493772</v>
+        <v>4842740.321178976</v>
       </c>
       <c r="K118">
-        <v>1419.684915334856</v>
+        <v>3986721.251351235</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4566,34 +4575,34 @@
         <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>159.6030974389482</v>
+        <v>1116482.825560129</v>
       </c>
       <c r="G119">
-        <v>-21.81469822038401</v>
+        <v>4841189.793131986</v>
       </c>
       <c r="H119">
-        <v>1457.173622310456</v>
+        <v>3985629.647393517</v>
       </c>
       <c r="I119">
-        <v>-973.3646161945767</v>
+        <v>1115231.699459651</v>
       </c>
       <c r="J119">
-        <v>1666.33383779931</v>
+        <v>4842691.669554951</v>
       </c>
       <c r="K119">
-        <v>1511.453396421374</v>
+        <v>3986873.560532094</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4601,34 +4610,34 @@
         <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>143.1470346428684</v>
+        <v>1116470.235635509</v>
       </c>
       <c r="G120">
-        <v>-11.20393434241842</v>
+        <v>4841206.305948393</v>
       </c>
       <c r="H120">
-        <v>1533.45687173768</v>
+        <v>3985695.694279041</v>
       </c>
       <c r="I120">
-        <v>-940.059544037255</v>
+        <v>1115270.399168021</v>
       </c>
       <c r="J120">
-        <v>1610.989772104848</v>
+        <v>4842643.017930927</v>
       </c>
       <c r="K120">
-        <v>1594.09460288117</v>
+        <v>3987010.721072532</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4636,34 +4645,34 @@
         <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>130.8703189941394</v>
+        <v>1116460.843174716</v>
       </c>
       <c r="G121">
-        <v>-0.5931704644528453</v>
+        <v>4841222.818764803</v>
       </c>
       <c r="H121">
-        <v>1595.938770086752</v>
+        <v>3985749.79180135</v>
       </c>
       <c r="I121">
-        <v>-905.9343651181639</v>
+        <v>1115310.051821107</v>
       </c>
       <c r="J121">
-        <v>1555.645706410387</v>
+        <v>4842594.366306902</v>
       </c>
       <c r="K121">
-        <v>1667.608534714244</v>
+        <v>3987132.73297255</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4671,34 +4680,34 @@
         <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>121.2716417493475</v>
+        <v>1116453.499581995</v>
       </c>
       <c r="G122">
-        <v>10.01759341351274</v>
+        <v>4841239.331581211</v>
       </c>
       <c r="H122">
-        <v>1648.856377030896</v>
+        <v>3985795.608453817</v>
       </c>
       <c r="I122">
-        <v>-870.9688850627791</v>
+        <v>1115350.680884295</v>
       </c>
       <c r="J122">
-        <v>1500.301640715925</v>
+        <v>4842545.714682876</v>
       </c>
       <c r="K122">
-        <v>1731.995191920597</v>
+        <v>3987239.596232149</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4706,34 +4715,34 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>113.5056129557035</v>
+        <v>1116447.558080779</v>
       </c>
       <c r="G123">
-        <v>20.62835729147833</v>
+        <v>4841255.844397619</v>
       </c>
       <c r="H123">
-        <v>1694.752763322411</v>
+        <v>3985835.346055377</v>
       </c>
       <c r="I123">
-        <v>-835.142412228682</v>
+        <v>1115392.310400787</v>
       </c>
       <c r="J123">
-        <v>1444.957575021463</v>
+        <v>4842497.063058852</v>
       </c>
       <c r="K123">
-        <v>1787.254574500228</v>
+        <v>3987331.310851327</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4741,34 +4750,34 @@
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>107.0570418658987</v>
+        <v>1116442.624517694</v>
       </c>
       <c r="G124">
-        <v>31.23912116944391</v>
+        <v>4841272.357214029</v>
       </c>
       <c r="H124">
-        <v>1735.274730800648</v>
+        <v>3985870.430425371</v>
       </c>
       <c r="I124">
-        <v>-798.4337454607962</v>
+        <v>1115434.965005823</v>
       </c>
       <c r="J124">
-        <v>1389.613509327001</v>
+        <v>4842448.411434827</v>
       </c>
       <c r="K124">
-        <v>1833.386682453139</v>
+        <v>3987407.876830086</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4776,34 +4785,34 @@
         <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>101.5923630619779</v>
+        <v>1116438.443694185</v>
       </c>
       <c r="G125">
-        <v>41.84988504740951</v>
+        <v>4841288.870030437</v>
       </c>
       <c r="H125">
-        <v>1771.550045883751</v>
+        <v>3985901.837996504</v>
       </c>
       <c r="I125">
-        <v>-760.821161545105</v>
+        <v>1115478.669941267</v>
       </c>
       <c r="J125">
-        <v>1334.269443632539</v>
+        <v>4842399.759810803</v>
       </c>
       <c r="K125">
-        <v>1870.391515779327</v>
+        <v>3987469.294168424</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4811,34 +4820,34 @@
         <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>96.88507540846592</v>
+        <v>1116434.842322614</v>
       </c>
       <c r="G126">
-        <v>52.46064892537509</v>
+        <v>4841305.382846845</v>
       </c>
       <c r="H126">
-        <v>1804.384967370861</v>
+        <v>3985930.266836609</v>
       </c>
       <c r="I126">
-        <v>-722.2824023534328</v>
+        <v>1115523.451070538</v>
       </c>
       <c r="J126">
-        <v>1278.925377938078</v>
+        <v>4842351.108186778</v>
       </c>
       <c r="K126">
-        <v>1898.269074478794</v>
+        <v>3987515.562866343</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4846,34 +4855,34 @@
         <v>57</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>92.77537005323261</v>
+        <v>1116431.698139143</v>
       </c>
       <c r="G127">
-        <v>63.07141280334067</v>
+        <v>4841321.895663255</v>
       </c>
       <c r="H127">
-        <v>1834.375918987434</v>
+        <v>3985956.23333598</v>
       </c>
       <c r="I127">
-        <v>-682.7946616716741</v>
+        <v>1115569.33489392</v>
       </c>
       <c r="J127">
-        <v>1223.581312243616</v>
+        <v>4842302.456562753</v>
       </c>
       <c r="K127">
-        <v>1917.019358551539</v>
+        <v>3987546.682923842</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4881,34 +4890,34 @@
         <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>89.14688865175445</v>
+        <v>1116428.92212231</v>
       </c>
       <c r="G128">
-        <v>73.68217668130626</v>
+        <v>4841338.408479663</v>
       </c>
       <c r="H128">
-        <v>1861.976526953994</v>
+        <v>3985980.13024924</v>
       </c>
       <c r="I128">
-        <v>-642.3345717036822</v>
+        <v>1115616.34856424</v>
       </c>
       <c r="J128">
-        <v>1168.237246549154</v>
+        <v>4842253.804938728</v>
       </c>
       <c r="K128">
-        <v>1926.642367997564</v>
+        <v>3987562.654340921</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4916,34 +4925,34 @@
         <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>85.91265291678316</v>
+        <v>1116426.447728245</v>
       </c>
       <c r="G129">
-        <v>84.29294055927184</v>
+        <v>4841354.921296071</v>
       </c>
       <c r="H129">
-        <v>1887.539855215495</v>
+        <v>3986002.26326308</v>
       </c>
       <c r="I129">
-        <v>-600.8781892428286</v>
+        <v>1115664.519902941</v>
       </c>
       <c r="J129">
-        <v>1112.893180854692</v>
+        <v>4842205.153314704</v>
       </c>
       <c r="K129">
-        <v>1927.138102816866</v>
+        <v>3987563.477117579</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4951,34 +4960,34 @@
         <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>83.00618132929829</v>
+        <v>1116424.2240944</v>
       </c>
       <c r="G130">
-        <v>94.90370443723744</v>
+        <v>4841371.434112481</v>
       </c>
       <c r="H130">
-        <v>1911.346095199764</v>
+        <v>3986022.874970353</v>
       </c>
       <c r="I130">
-        <v>-558.4009815030493</v>
+        <v>1115713.877416539</v>
       </c>
       <c r="J130">
-        <v>1057.54911516023</v>
+        <v>4842156.501690678</v>
       </c>
       <c r="K130">
-        <v>1918.506563009447</v>
+        <v>3987549.151253818</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4986,34 +4995,34 @@
         <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>80.37567795490654</v>
+        <v>1116422.211593621</v>
       </c>
       <c r="G131">
-        <v>105.514468315203</v>
+        <v>4841387.946928889</v>
       </c>
       <c r="H131">
-        <v>1933.621335873171</v>
+        <v>3986042.1611214</v>
       </c>
       <c r="I131">
-        <v>-514.877811600992</v>
+        <v>1115764.450313502</v>
       </c>
       <c r="J131">
-        <v>1002.205049465769</v>
+        <v>4842107.850066653</v>
       </c>
       <c r="K131">
-        <v>1900.747748575307</v>
+        <v>3987519.676749636</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5021,34 +5030,34 @@
         <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>77.98011346100692</v>
+        <v>1116420.378835884</v>
       </c>
       <c r="G132">
-        <v>116.1252321931686</v>
+        <v>4841404.459745297</v>
       </c>
       <c r="H132">
-        <v>1954.550654342311</v>
+        <v>3986060.281958037</v>
       </c>
       <c r="I132">
-        <v>-470.2829236806789</v>
+        <v>1115816.268521527</v>
       </c>
       <c r="J132">
-        <v>946.8609837713067</v>
+        <v>4842059.19844263</v>
       </c>
       <c r="K132">
-        <v>1873.861659514445</v>
+        <v>3987475.053605035</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5056,34 +5065,34 @@
         <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>75.7865115980991</v>
+        <v>1116418.700592282</v>
       </c>
       <c r="G133">
-        <v>126.7359960711342</v>
+        <v>4841420.972561706</v>
       </c>
       <c r="H133">
-        <v>1974.287472040228</v>
+        <v>3986077.370314248</v>
       </c>
       <c r="I133">
-        <v>-424.5899276718729</v>
+        <v>1115869.362705252</v>
       </c>
       <c r="J133">
-        <v>891.5169180768447</v>
+        <v>4842010.546818604</v>
       </c>
       <c r="K133">
-        <v>1837.848295826862</v>
+        <v>3987415.281820015</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5091,34 +5100,34 @@
         <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>73.76802652052508</v>
+        <v>1116417.156324052</v>
       </c>
       <c r="G134">
-        <v>137.3467599490998</v>
+        <v>4841437.485378115</v>
       </c>
       <c r="H134">
-        <v>1992.960386186473</v>
+        <v>3986093.537530934</v>
       </c>
       <c r="I134">
-        <v>-377.7717836731356</v>
+        <v>1115923.764284406</v>
       </c>
       <c r="J134">
-        <v>836.1728523823831</v>
+        <v>4841961.89519458</v>
       </c>
       <c r="K134">
-        <v>1792.707657512557</v>
+        <v>3987340.361394573</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5126,34 +5135,34 @@
         <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>71.90255247206461</v>
+        <v>1116415.729118897</v>
       </c>
       <c r="G135">
-        <v>147.9575238270654</v>
+        <v>4841453.998194523</v>
       </c>
       <c r="H135">
-        <v>2010.678252369991</v>
+        <v>3986108.877856476</v>
       </c>
       <c r="I135">
-        <v>-329.8007859503317</v>
+        <v>1115979.505452398</v>
       </c>
       <c r="J135">
-        <v>780.8287866879211</v>
+        <v>4841913.243570555</v>
       </c>
       <c r="K135">
-        <v>1738.439744571531</v>
+        <v>3987250.292328713</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5161,34 +5170,34 @@
         <v>57</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>70.17170010069114</v>
+        <v>1116414.404907805</v>
       </c>
       <c r="G136">
-        <v>158.5682877050309</v>
+        <v>4841470.511010932</v>
       </c>
       <c r="H136">
-        <v>2027.534029449067</v>
+        <v>3986123.471775685</v>
       </c>
       <c r="I136">
-        <v>-280.6485465411125</v>
+        <v>1116036.619195371</v>
       </c>
       <c r="J136">
-        <v>725.4847209934593</v>
+        <v>4841864.59194653</v>
       </c>
       <c r="K136">
-        <v>1675.044557003783</v>
+        <v>3987145.074622432</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5196,34 +5205,34 @@
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>68.56003044207549</v>
+        <v>1116413.171878995</v>
       </c>
       <c r="G137">
-        <v>169.1790515829965</v>
+        <v>4841487.02382734</v>
       </c>
       <c r="H137">
-        <v>2043.607731706051</v>
+        <v>3986137.388565818</v>
       </c>
       <c r="I137">
-        <v>-230.2859784556725</v>
+        <v>1116095.139311721</v>
       </c>
       <c r="J137">
-        <v>670.1406552989977</v>
+        <v>4841815.940322505</v>
       </c>
       <c r="K137">
-        <v>1602.522094809314</v>
+        <v>3987024.708275731</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5231,34 +5240,34 @@
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>67.05447332037724</v>
+        <v>1116412.020032961</v>
       </c>
       <c r="G138">
-        <v>179.7898154609621</v>
+        <v>4841503.536643749</v>
       </c>
       <c r="H138">
-        <v>2058.96872600037</v>
+        <v>3986150.688285472</v>
       </c>
       <c r="I138">
-        <v>-178.6832784638417</v>
+        <v>1116155.100432098</v>
       </c>
       <c r="J138">
-        <v>614.7965896045357</v>
+        <v>4841767.28869848</v>
       </c>
       <c r="K138">
-        <v>1520.872357988123</v>
+        <v>3986889.193288611</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5266,34 +5275,34 @@
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>65.64387992332422</v>
+        <v>1116410.940840158</v>
       </c>
       <c r="G139">
-        <v>190.4005793389277</v>
+        <v>4841520.049460157</v>
       </c>
       <c r="H139">
-        <v>2073.677540927252</v>
+        <v>3986163.423340979</v>
       </c>
       <c r="I139">
-        <v>-125.8099094583252</v>
+        <v>1116216.538039902</v>
       </c>
       <c r="J139">
-        <v>559.4525239100741</v>
+        <v>4841718.637074456</v>
       </c>
       <c r="K139">
-        <v>1430.095346540211</v>
+        <v>3986738.52966107</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5301,34 +5310,34 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>64.31867445973928</v>
+        <v>1116409.926974502</v>
       </c>
       <c r="G140">
-        <v>201.0113432168933</v>
+        <v>4841536.562276566</v>
       </c>
       <c r="H140">
-        <v>2087.78730732875</v>
+        <v>3986175.639733612</v>
       </c>
       <c r="I140">
-        <v>-71.63458238365533</v>
+        <v>1116279.488492276</v>
       </c>
       <c r="J140">
-        <v>504.1084582156121</v>
+        <v>4841669.985450432</v>
       </c>
       <c r="K140">
-        <v>1330.191060465577</v>
+        <v>3986572.717393109</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5336,34 +5345,34 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>63.07057998322527</v>
+        <v>1116408.972103609</v>
       </c>
       <c r="G141">
-        <v>211.6221070948589</v>
+        <v>4841553.075092974</v>
       </c>
       <c r="H141">
-        <v>2101.344916780425</v>
+        <v>3986187.378062618</v>
       </c>
       <c r="I141">
-        <v>-16.12523772015899</v>
+        <v>1116343.989041626</v>
       </c>
       <c r="J141">
-        <v>448.7643925211502</v>
+        <v>4841621.333826406</v>
       </c>
       <c r="K141">
-        <v>1221.159499764221</v>
+        <v>3986391.756484729</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5371,34 +5380,34 @@
         <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>61.89240042312127</v>
+        <v>1116408.070722031</v>
       </c>
       <c r="G142">
-        <v>222.2328709728245</v>
+        <v>4841569.587909383</v>
       </c>
       <c r="H142">
-        <v>2114.391961822491</v>
+        <v>3986198.674339281</v>
       </c>
       <c r="I142">
-        <v>40.75097348801542</v>
+        <v>1116410.077857665</v>
       </c>
       <c r="J142">
-        <v>393.4203268266886</v>
+        <v>4841572.682202381</v>
       </c>
       <c r="K142">
-        <v>1103.000664436145</v>
+        <v>3986195.646935929</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5406,34 +5415,34 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>60.77784569939615</v>
+        <v>1116407.218017461</v>
       </c>
       <c r="G143">
-        <v>232.84363485079</v>
+        <v>4841586.100725792</v>
       </c>
       <c r="H143">
-        <v>2126.96550549139</v>
+        <v>3986209.560653192</v>
       </c>
       <c r="I143">
-        <v>99.02770907203617</v>
+        <v>1116477.794049998</v>
       </c>
       <c r="J143">
-        <v>338.0762611322266</v>
+        <v>4841524.030578357</v>
       </c>
       <c r="K143">
-        <v>975.7145544813465</v>
+        <v>3985984.388746708</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5441,34 +5450,34 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>59.7213902097448</v>
+        <v>1116406.409762464</v>
       </c>
       <c r="G144">
-        <v>243.4543987287556</v>
+        <v>4841602.6135422</v>
       </c>
       <c r="H144">
-        <v>2139.098716041179</v>
+        <v>3986220.065721791</v>
       </c>
       <c r="I144">
-        <v>158.7394556562003</v>
+        <v>1116547.17769127</v>
       </c>
       <c r="J144">
-        <v>282.732195437765</v>
+        <v>4841475.378954332</v>
       </c>
       <c r="K144">
-        <v>839.3011698998272</v>
+        <v>3985757.981917067</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5476,34 +5485,34 @@
         <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>58.71815741762472</v>
+        <v>1116405.642226184</v>
       </c>
       <c r="G145">
-        <v>254.0651626067213</v>
+        <v>4841619.126358609</v>
       </c>
       <c r="H145">
-        <v>2150.821394238037</v>
+        <v>3986230.215346915</v>
       </c>
       <c r="I145">
-        <v>219.9215490661993</v>
+        <v>1116618.269840876</v>
       </c>
       <c r="J145">
-        <v>227.3881297433031</v>
+        <v>4841426.727330307</v>
       </c>
       <c r="K145">
-        <v>693.7605106915855</v>
+        <v>3985516.426447007</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5511,34 +5520,34 @@
         <v>57</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>57.76382503814889</v>
+        <v>1116404.912101799</v>
       </c>
       <c r="G146">
-        <v>264.6759264846868</v>
+        <v>4841635.639175018</v>
       </c>
       <c r="H146">
-        <v>2162.160414333843</v>
+        <v>3986240.032796589</v>
       </c>
       <c r="I146">
-        <v>282.6101952399263</v>
+        <v>1116691.112569263</v>
       </c>
       <c r="J146">
-        <v>172.0440640488411</v>
+        <v>4841378.075706283</v>
       </c>
       <c r="K146">
-        <v>539.0925768566228</v>
+        <v>3985259.722336527</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5546,34 +5555,34 @@
         <v>57</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>56.85454661506782</v>
+        <v>1116404.216446529</v>
       </c>
       <c r="G147">
-        <v>275.2866903626524</v>
+        <v>4841652.151991426</v>
       </c>
       <c r="H147">
-        <v>2173.140095140032</v>
+        <v>3986249.539126311</v>
       </c>
       <c r="I147">
-        <v>346.8424916531833</v>
+        <v>1116765.748982821</v>
       </c>
       <c r="J147">
-        <v>116.6999983543795</v>
+        <v>4841329.424082258</v>
       </c>
       <c r="K147">
-        <v>375.297368394939</v>
+        <v>3984987.869585627</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5581,34 +5590,34 @@
         <v>57</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>55.98688624295382</v>
+        <v>1116403.55263169</v>
       </c>
       <c r="G148">
-        <v>285.8974542406179</v>
+        <v>4841668.664807835</v>
       </c>
       <c r="H148">
-        <v>2183.782514090146</v>
+        <v>3986258.753450968</v>
       </c>
       <c r="I148">
-        <v>412.656449272989</v>
+        <v>1116842.2232494</v>
       </c>
       <c r="J148">
-        <v>61.35593265991757</v>
+        <v>4841280.772458234</v>
       </c>
       <c r="K148">
-        <v>202.3748853065331</v>
+        <v>3984700.868194306</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5616,34 +5625,34 @@
         <v>57</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>55.15776390824396</v>
+        <v>1116402.918300877</v>
       </c>
       <c r="G149">
-        <v>296.5082181185836</v>
+        <v>4841685.177624244</v>
       </c>
       <c r="H149">
-        <v>2194.107774489436</v>
+        <v>3986267.693176225</v>
       </c>
       <c r="I149">
-        <v>480.0910150514511</v>
+        <v>1116920.580624438</v>
       </c>
       <c r="J149">
-        <v>6.011866965455657</v>
+        <v>4841232.120834208</v>
       </c>
       <c r="K149">
-        <v>20.32512759140591</v>
+        <v>3984398.718162566</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5651,34 +5660,34 @@
         <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>54.36440946680875</v>
+        <v>1116402.311334755</v>
       </c>
       <c r="G150">
-        <v>307.1189819965492</v>
+        <v>4841701.690440652</v>
       </c>
       <c r="H150">
-        <v>2204.134234083013</v>
+        <v>3986276.374196422</v>
       </c>
       <c r="I150">
-        <v>549.1860949735443</v>
+        <v>1117000.867477749</v>
       </c>
       <c r="J150">
-        <v>-49.332198729006</v>
+        <v>4841183.469210183</v>
       </c>
       <c r="K150">
-        <v>-170.8519047504423</v>
+        <v>3984081.419490406</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5686,34 +5695,34 @@
         <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>53.60432369069245</v>
+        <v>1116401.729821258</v>
       </c>
       <c r="G151">
-        <v>317.7297458745147</v>
+        <v>4841718.203257061</v>
       </c>
       <c r="H151">
-        <v>2213.878701472423</v>
+        <v>3986284.811064634</v>
       </c>
       <c r="I151">
-        <v>619.9825776724115</v>
+        <v>1117083.131320961</v>
       </c>
       <c r="J151">
-        <v>-104.6762644234679</v>
+        <v>4841134.817586159</v>
       </c>
       <c r="K151">
-        <v>-371.1562117190124</v>
+        <v>3983748.972177826</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5721,34 +5730,34 @@
         <v>57</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>52.87524513588683</v>
+        <v>1116401.172030238</v>
       </c>
       <c r="G152">
-        <v>328.3405097524803</v>
+        <v>4841734.716073469</v>
       </c>
       <c r="H152">
-        <v>2223.356605659586</v>
+        <v>3986293.017139461</v>
       </c>
       <c r="I152">
-        <v>692.5223586261689</v>
+        <v>1117167.42083563</v>
       </c>
       <c r="J152">
-        <v>-160.0203301179298</v>
+        <v>4841086.165962134</v>
       </c>
       <c r="K152">
-        <v>-580.5877933143047</v>
+        <v>3983401.376224827</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5756,34 +5765,34 @@
         <v>57</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>52.17512183050532</v>
+        <v>1116400.636391808</v>
       </c>
       <c r="G153">
-        <v>338.9512736304459</v>
+        <v>4841751.228889878</v>
       </c>
       <c r="H153">
-        <v>2232.582143012745</v>
+        <v>3986301.004712278</v>
       </c>
       <c r="I153">
-        <v>766.8483649505376</v>
+        <v>1117253.785902052</v>
       </c>
       <c r="J153">
-        <v>-215.3643958123918</v>
+        <v>4841037.514338109</v>
       </c>
       <c r="K153">
-        <v>-799.1466495363179</v>
+        <v>3983038.631631407</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5791,34 +5800,34 @@
         <v>57</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>51.50208697604042</v>
+        <v>1116400.121477749</v>
       </c>
       <c r="G154">
-        <v>349.5620375084115</v>
+        <v>4841767.741706287</v>
       </c>
       <c r="H154">
-        <v>2241.568405169024</v>
+        <v>3986308.785117968</v>
       </c>
       <c r="I154">
-        <v>843.0045808019717</v>
+        <v>1117342.277628782</v>
       </c>
       <c r="J154">
-        <v>-270.7084615068532</v>
+        <v>4840988.862714085</v>
       </c>
       <c r="K154">
-        <v>-1026.832780385051</v>
+        <v>3982660.738397567</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5826,34 +5835,34 @@
         <v>57</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>50.85443800645338</v>
+        <v>1116399.625985492</v>
       </c>
       <c r="G155">
-        <v>360.1728013863771</v>
+        <v>4841784.254522695</v>
       </c>
       <c r="H155">
-        <v>2250.327490766053</v>
+        <v>3986316.368831668</v>
       </c>
       <c r="I155">
-        <v>921.0360734063141</v>
+        <v>1117432.94838287</v>
       </c>
       <c r="J155">
-        <v>-326.0525272013151</v>
+        <v>4840940.21109006</v>
       </c>
       <c r="K155">
-        <v>-1263.646185860507</v>
+        <v>3982267.696523307</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5861,34 +5870,34 @@
         <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>50.2306184702454</v>
+        <v>1116399.148724252</v>
       </c>
       <c r="G156">
-        <v>370.7835652643427</v>
+        <v>4841800.767339104</v>
       </c>
       <c r="H156">
-        <v>2258.870603395693</v>
+        <v>3986323.765553571</v>
       </c>
       <c r="I156">
-        <v>1000.989019728381</v>
+        <v>1117525.851820863</v>
       </c>
       <c r="J156">
-        <v>-381.396592895777</v>
+        <v>4840891.559466034</v>
       </c>
       <c r="K156">
-        <v>-1509.586865962685</v>
+        <v>3981859.506008627</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5896,34 +5905,34 @@
         <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>49.62920229659269</v>
+        <v>1116398.688602995</v>
       </c>
       <c r="G157">
-        <v>381.3943291423082</v>
+        <v>4841817.280155513</v>
       </c>
       <c r="H157">
-        <v>2267.208137769658</v>
+        <v>3986330.984283534</v>
       </c>
       <c r="I157">
-        <v>1082.910733798267</v>
+        <v>1117621.042920547</v>
       </c>
       <c r="J157">
-        <v>-436.7406585902389</v>
+        <v>4840842.90784201</v>
       </c>
       <c r="K157">
-        <v>-1764.654820691585</v>
+        <v>3981436.166853528</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5931,34 +5940,34 @@
         <v>57</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>49.04888008352003</v>
+        <v>1116398.244619947</v>
       </c>
       <c r="G158">
-        <v>392.0050930202739</v>
+        <v>4841833.79297192</v>
       </c>
       <c r="H158">
-        <v>2275.349755759468</v>
+        <v>3986338.033386914</v>
       </c>
       <c r="I158">
-        <v>1166.84969471053</v>
+        <v>1117718.578013486</v>
       </c>
       <c r="J158">
-        <v>-492.0847242847008</v>
+        <v>4840794.256217985</v>
       </c>
       <c r="K158">
-        <v>-2028.850050047205</v>
+        <v>3980997.679058008</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5966,34 +5975,34 @@
         <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>48.48844710805822</v>
+        <v>1116397.815853419</v>
       </c>
       <c r="G159">
-        <v>402.6158568982394</v>
+        <v>4841850.30578833</v>
       </c>
       <c r="H159">
-        <v>2283.304453705869</v>
+        <v>3986344.920652842</v>
       </c>
       <c r="I159">
-        <v>1252.855575312828</v>
+        <v>1117818.514818358</v>
       </c>
       <c r="J159">
-        <v>-547.4287899791622</v>
+        <v>4840745.604593961</v>
       </c>
       <c r="K159">
-        <v>-2302.172554029545</v>
+        <v>3980544.042622068</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6001,34 +6010,1889 @@
         <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>47.94679280855593</v>
+        <v>1116397.40145376</v>
       </c>
       <c r="G160">
-        <v>413.226620776205</v>
+        <v>4841866.818604738</v>
       </c>
       <c r="H160">
-        <v>2291.080622173667</v>
+        <v>3986351.653345963</v>
       </c>
       <c r="I160">
-        <v>1340.979271600999</v>
+        <v>1117920.91247511</v>
       </c>
       <c r="J160">
-        <v>-602.7728556736241</v>
+        <v>4840696.952969936</v>
       </c>
       <c r="K160">
-        <v>-2584.622332638609</v>
+        <v>3980075.257545709</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G161">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H161">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I161">
+        <v>1114862.820712497</v>
+      </c>
+      <c r="J161">
+        <v>4843227.630475673</v>
+      </c>
+      <c r="K161">
+        <v>3984359.748072141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G162">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H162">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I162">
+        <v>1114892.43474783</v>
+      </c>
+      <c r="J162">
+        <v>4843178.978843682</v>
+      </c>
+      <c r="K162">
+        <v>3984663.543257951</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G163">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H163">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I163">
+        <v>1114922.778001538</v>
+      </c>
+      <c r="J163">
+        <v>4843130.327211689</v>
+      </c>
+      <c r="K163">
+        <v>3984952.189823249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G164">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H164">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I164">
+        <v>1114953.868429954</v>
+      </c>
+      <c r="J164">
+        <v>4843081.675579699</v>
+      </c>
+      <c r="K164">
+        <v>3985225.687768036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>57</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G165">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H165">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I165">
+        <v>1114985.724431567</v>
+      </c>
+      <c r="J165">
+        <v>4843033.023947707</v>
+      </c>
+      <c r="K165">
+        <v>3985484.037092311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>57</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G166">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H166">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I166">
+        <v>1115018.364857913</v>
+      </c>
+      <c r="J166">
+        <v>4842984.372315717</v>
+      </c>
+      <c r="K166">
+        <v>3985727.237796075</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>57</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G167">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H167">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I167">
+        <v>1115051.809024729</v>
+      </c>
+      <c r="J167">
+        <v>4842935.720683725</v>
+      </c>
+      <c r="K167">
+        <v>3985955.289879326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G168">
+        <v>4841121.330183597</v>
+      </c>
+      <c r="H168">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I168">
+        <v>1115086.076723385</v>
+      </c>
+      <c r="J168">
+        <v>4842887.069051733</v>
+      </c>
+      <c r="K168">
+        <v>3986168.193342066</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116578.89088244</v>
+      </c>
+      <c r="G169">
+        <v>4841137.84299178</v>
+      </c>
+      <c r="H169">
+        <v>3985234.132205474</v>
+      </c>
+      <c r="I169">
+        <v>1115121.188232594</v>
+      </c>
+      <c r="J169">
+        <v>4842838.417419743</v>
+      </c>
+      <c r="K169">
+        <v>3986365.948184295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.210301797</v>
+      </c>
+      <c r="G170">
+        <v>4841154.355799963</v>
+      </c>
+      <c r="H170">
+        <v>3985433.386902431</v>
+      </c>
+      <c r="I170">
+        <v>1115157.164330416</v>
+      </c>
+      <c r="J170">
+        <v>4842789.765787751</v>
+      </c>
+      <c r="K170">
+        <v>3986548.554406012</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.61290275</v>
+      </c>
+      <c r="G171">
+        <v>4841170.868608145</v>
+      </c>
+      <c r="H171">
+        <v>3985552.07319021</v>
+      </c>
+      <c r="I171">
+        <v>1115194.026306549</v>
+      </c>
+      <c r="J171">
+        <v>4842741.11415576</v>
+      </c>
+      <c r="K171">
+        <v>3986716.012007217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.56012646</v>
+      </c>
+      <c r="G172">
+        <v>4841187.381416328</v>
+      </c>
+      <c r="H172">
+        <v>3985636.890258387</v>
+      </c>
+      <c r="I172">
+        <v>1115231.795974932</v>
+      </c>
+      <c r="J172">
+        <v>4842692.462523769</v>
+      </c>
+      <c r="K172">
+        <v>3986868.320987911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116470.970193557</v>
+      </c>
+      <c r="G173">
+        <v>4841203.89422451</v>
+      </c>
+      <c r="H173">
+        <v>3985702.937263935</v>
+      </c>
+      <c r="I173">
+        <v>1115270.495686652</v>
+      </c>
+      <c r="J173">
+        <v>4842643.810891778</v>
+      </c>
+      <c r="K173">
+        <v>3987005.481348093</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.577726585</v>
+      </c>
+      <c r="G174">
+        <v>4841220.407032693</v>
+      </c>
+      <c r="H174">
+        <v>3985757.034884552</v>
+      </c>
+      <c r="I174">
+        <v>1115310.148343169</v>
+      </c>
+      <c r="J174">
+        <v>4842595.159259787</v>
+      </c>
+      <c r="K174">
+        <v>3987127.493087763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.234129032</v>
+      </c>
+      <c r="G175">
+        <v>4841236.919840874</v>
+      </c>
+      <c r="H175">
+        <v>3985802.85162028</v>
+      </c>
+      <c r="I175">
+        <v>1115350.777409874</v>
+      </c>
+      <c r="J175">
+        <v>4842546.507627795</v>
+      </c>
+      <c r="K175">
+        <v>3987234.356206923</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.292623907</v>
+      </c>
+      <c r="G176">
+        <v>4841253.432649057</v>
+      </c>
+      <c r="H176">
+        <v>3985842.589294052</v>
+      </c>
+      <c r="I176">
+        <v>1115392.406929968</v>
+      </c>
+      <c r="J176">
+        <v>4842497.855995804</v>
+      </c>
+      <c r="K176">
+        <v>3987326.070705569</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.359057576</v>
+      </c>
+      <c r="G177">
+        <v>4841269.945457241</v>
+      </c>
+      <c r="H177">
+        <v>3985877.673727803</v>
+      </c>
+      <c r="I177">
+        <v>1115435.061538695</v>
+      </c>
+      <c r="J177">
+        <v>4842449.204363813</v>
+      </c>
+      <c r="K177">
+        <v>3987402.636583705</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.178231316</v>
+      </c>
+      <c r="G178">
+        <v>4841286.458265422</v>
+      </c>
+      <c r="H178">
+        <v>3985909.081356012</v>
+      </c>
+      <c r="I178">
+        <v>1115478.766477922</v>
+      </c>
+      <c r="J178">
+        <v>4842400.552731822</v>
+      </c>
+      <c r="K178">
+        <v>3987464.053841329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.576857375</v>
+      </c>
+      <c r="G179">
+        <v>4841302.971073605</v>
+      </c>
+      <c r="H179">
+        <v>3985937.510247779</v>
+      </c>
+      <c r="I179">
+        <v>1115523.547611069</v>
+      </c>
+      <c r="J179">
+        <v>4842351.90109983</v>
+      </c>
+      <c r="K179">
+        <v>3987510.322478442</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>57</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.432671836</v>
+      </c>
+      <c r="G180">
+        <v>4841319.483881787</v>
+      </c>
+      <c r="H180">
+        <v>3985963.476794337</v>
+      </c>
+      <c r="I180">
+        <v>1115569.431438421</v>
+      </c>
+      <c r="J180">
+        <v>4842303.249467839</v>
+      </c>
+      <c r="K180">
+        <v>3987541.442495042</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>57</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116429.656653177</v>
+      </c>
+      <c r="G181">
+        <v>4841335.99668997</v>
+      </c>
+      <c r="H181">
+        <v>3985987.373751024</v>
+      </c>
+      <c r="I181">
+        <v>1115616.44511281</v>
+      </c>
+      <c r="J181">
+        <v>4842254.597835848</v>
+      </c>
+      <c r="K181">
+        <v>3987557.413891132</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>57</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.182257484</v>
+      </c>
+      <c r="G182">
+        <v>4841352.509498153</v>
+      </c>
+      <c r="H182">
+        <v>3986009.506805085</v>
+      </c>
+      <c r="I182">
+        <v>1115664.61645568</v>
+      </c>
+      <c r="J182">
+        <v>4842205.946203857</v>
+      </c>
+      <c r="K182">
+        <v>3987558.236666709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>57</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116424.958622176</v>
+      </c>
+      <c r="G183">
+        <v>4841369.022306335</v>
+      </c>
+      <c r="H183">
+        <v>3986030.118549814</v>
+      </c>
+      <c r="I183">
+        <v>1115713.97397355</v>
+      </c>
+      <c r="J183">
+        <v>4842157.294571865</v>
+      </c>
+      <c r="K183">
+        <v>3987543.910821775</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>57</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116422.946120072</v>
+      </c>
+      <c r="G184">
+        <v>4841385.535114517</v>
+      </c>
+      <c r="H184">
+        <v>3986049.404735909</v>
+      </c>
+      <c r="I184">
+        <v>1115764.54687489</v>
+      </c>
+      <c r="J184">
+        <v>4842108.642939874</v>
+      </c>
+      <c r="K184">
+        <v>3987514.436356329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>57</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.11336113</v>
+      </c>
+      <c r="G185">
+        <v>4841402.0479227</v>
+      </c>
+      <c r="H185">
+        <v>3986067.525605476</v>
+      </c>
+      <c r="I185">
+        <v>1115816.365087399</v>
+      </c>
+      <c r="J185">
+        <v>4842059.991307883</v>
+      </c>
+      <c r="K185">
+        <v>3987469.813270371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>57</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.435116424</v>
+      </c>
+      <c r="G186">
+        <v>4841418.560730882</v>
+      </c>
+      <c r="H186">
+        <v>3986084.61399274</v>
+      </c>
+      <c r="I186">
+        <v>1115869.459275719</v>
+      </c>
+      <c r="J186">
+        <v>4842011.339675891</v>
+      </c>
+      <c r="K186">
+        <v>3987410.041563903</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>57</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116417.890847177</v>
+      </c>
+      <c r="G187">
+        <v>4841435.073539064</v>
+      </c>
+      <c r="H187">
+        <v>3986100.781238807</v>
+      </c>
+      <c r="I187">
+        <v>1115923.860859581</v>
+      </c>
+      <c r="J187">
+        <v>4841962.6880439</v>
+      </c>
+      <c r="K187">
+        <v>3987335.121236922</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>57</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.463641083</v>
+      </c>
+      <c r="G188">
+        <v>4841451.586347247</v>
+      </c>
+      <c r="H188">
+        <v>3986116.121592226</v>
+      </c>
+      <c r="I188">
+        <v>1115979.602032397</v>
+      </c>
+      <c r="J188">
+        <v>4841914.036411909</v>
+      </c>
+      <c r="K188">
+        <v>3987245.05228943</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>57</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.13942912</v>
+      </c>
+      <c r="G189">
+        <v>4841468.09915543</v>
+      </c>
+      <c r="H189">
+        <v>3986130.715537956</v>
+      </c>
+      <c r="I189">
+        <v>1116036.715780312</v>
+      </c>
+      <c r="J189">
+        <v>4841865.384779918</v>
+      </c>
+      <c r="K189">
+        <v>3987139.834721426</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>57</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116413.9063995</v>
+      </c>
+      <c r="G190">
+        <v>4841484.611963612</v>
+      </c>
+      <c r="H190">
+        <v>3986144.632353378</v>
+      </c>
+      <c r="I190">
+        <v>1116095.235901727</v>
+      </c>
+      <c r="J190">
+        <v>4841816.733147927</v>
+      </c>
+      <c r="K190">
+        <v>3987019.468532911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>57</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116412.754552708</v>
+      </c>
+      <c r="G191">
+        <v>4841501.124771795</v>
+      </c>
+      <c r="H191">
+        <v>3986157.932097202</v>
+      </c>
+      <c r="I191">
+        <v>1116155.197027293</v>
+      </c>
+      <c r="J191">
+        <v>4841768.081515935</v>
+      </c>
+      <c r="K191">
+        <v>3986883.953723884</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>57</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116411.675359194</v>
+      </c>
+      <c r="G192">
+        <v>4841517.637579977</v>
+      </c>
+      <c r="H192">
+        <v>3986170.667175851</v>
+      </c>
+      <c r="I192">
+        <v>1116216.634640414</v>
+      </c>
+      <c r="J192">
+        <v>4841719.429883944</v>
+      </c>
+      <c r="K192">
+        <v>3986733.290294345</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>57</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116410.661492872</v>
+      </c>
+      <c r="G193">
+        <v>4841534.15038816</v>
+      </c>
+      <c r="H193">
+        <v>3986182.883590684</v>
+      </c>
+      <c r="I193">
+        <v>1116279.585098236</v>
+      </c>
+      <c r="J193">
+        <v>4841670.778251953</v>
+      </c>
+      <c r="K193">
+        <v>3986567.478244294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>57</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116409.70662135</v>
+      </c>
+      <c r="G194">
+        <v>4841550.663196342</v>
+      </c>
+      <c r="H194">
+        <v>3986194.621941022</v>
+      </c>
+      <c r="I194">
+        <v>1116344.085653168</v>
+      </c>
+      <c r="J194">
+        <v>4841622.126619961</v>
+      </c>
+      <c r="K194">
+        <v>3986386.517573732</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>57</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116408.805239179</v>
+      </c>
+      <c r="G195">
+        <v>4841567.176004524</v>
+      </c>
+      <c r="H195">
+        <v>3986205.918238213</v>
+      </c>
+      <c r="I195">
+        <v>1116410.174474926</v>
+      </c>
+      <c r="J195">
+        <v>4841573.474987971</v>
+      </c>
+      <c r="K195">
+        <v>3986190.408282659</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>57</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116407.952534048</v>
+      </c>
+      <c r="G196">
+        <v>4841583.688812708</v>
+      </c>
+      <c r="H196">
+        <v>3986216.804571907</v>
+      </c>
+      <c r="I196">
+        <v>1116477.89067312</v>
+      </c>
+      <c r="J196">
+        <v>4841524.823355979</v>
+      </c>
+      <c r="K196">
+        <v>3985979.150371074</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>57</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.14427852</v>
+      </c>
+      <c r="G197">
+        <v>4841600.201620889</v>
+      </c>
+      <c r="H197">
+        <v>3986227.309659597</v>
+      </c>
+      <c r="I197">
+        <v>1116547.274320396</v>
+      </c>
+      <c r="J197">
+        <v>4841476.171723988</v>
+      </c>
+      <c r="K197">
+        <v>3985752.743838977</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>57</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.376741734</v>
+      </c>
+      <c r="G198">
+        <v>4841616.714429072</v>
+      </c>
+      <c r="H198">
+        <v>3986237.459303164</v>
+      </c>
+      <c r="I198">
+        <v>1116618.366476155</v>
+      </c>
+      <c r="J198">
+        <v>4841427.520091997</v>
+      </c>
+      <c r="K198">
+        <v>3985511.188686369</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>57</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116405.646616869</v>
+      </c>
+      <c r="G199">
+        <v>4841633.227237255</v>
+      </c>
+      <c r="H199">
+        <v>3986247.27677068</v>
+      </c>
+      <c r="I199">
+        <v>1116691.209210846</v>
+      </c>
+      <c r="J199">
+        <v>4841378.868460005</v>
+      </c>
+      <c r="K199">
+        <v>3985254.484913249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>57</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116404.950961142</v>
+      </c>
+      <c r="G200">
+        <v>4841649.740045437</v>
+      </c>
+      <c r="H200">
+        <v>3986256.783117676</v>
+      </c>
+      <c r="I200">
+        <v>1116765.845630864</v>
+      </c>
+      <c r="J200">
+        <v>4841330.216828015</v>
+      </c>
+      <c r="K200">
+        <v>3984982.632519617</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>57</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.287145865</v>
+      </c>
+      <c r="G201">
+        <v>4841666.25285362</v>
+      </c>
+      <c r="H201">
+        <v>3986265.997459078</v>
+      </c>
+      <c r="I201">
+        <v>1116842.319904061</v>
+      </c>
+      <c r="J201">
+        <v>4841281.565196023</v>
+      </c>
+      <c r="K201">
+        <v>3984695.631505473</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>57</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116403.652814635</v>
+      </c>
+      <c r="G202">
+        <v>4841682.765661802</v>
+      </c>
+      <c r="H202">
+        <v>3986274.937200581</v>
+      </c>
+      <c r="I202">
+        <v>1116920.67728588</v>
+      </c>
+      <c r="J202">
+        <v>4841232.913564031</v>
+      </c>
+      <c r="K202">
+        <v>3984393.481870818</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>57</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.045848114</v>
+      </c>
+      <c r="G203">
+        <v>4841699.278469984</v>
+      </c>
+      <c r="H203">
+        <v>3986283.618236554</v>
+      </c>
+      <c r="I203">
+        <v>1117000.96414614</v>
+      </c>
+      <c r="J203">
+        <v>4841184.261932041</v>
+      </c>
+      <c r="K203">
+        <v>3984076.183615652</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>57</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.464334234</v>
+      </c>
+      <c r="G204">
+        <v>4841715.791278167</v>
+      </c>
+      <c r="H204">
+        <v>3986292.055120097</v>
+      </c>
+      <c r="I204">
+        <v>1117083.22799647</v>
+      </c>
+      <c r="J204">
+        <v>4841135.610300049</v>
+      </c>
+      <c r="K204">
+        <v>3983743.736739974</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>57</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116401.906542847</v>
+      </c>
+      <c r="G205">
+        <v>4841732.304086349</v>
+      </c>
+      <c r="H205">
+        <v>3986300.261209837</v>
+      </c>
+      <c r="I205">
+        <v>1117167.517518434</v>
+      </c>
+      <c r="J205">
+        <v>4841086.958668058</v>
+      </c>
+      <c r="K205">
+        <v>3983396.141243784</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>57</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.370904065</v>
+      </c>
+      <c r="G206">
+        <v>4841748.816894532</v>
+      </c>
+      <c r="H206">
+        <v>3986308.248797169</v>
+      </c>
+      <c r="I206">
+        <v>1117253.882592331</v>
+      </c>
+      <c r="J206">
+        <v>4841038.307036066</v>
+      </c>
+      <c r="K206">
+        <v>3983033.397127083</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>57</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116400.855989668</v>
+      </c>
+      <c r="G207">
+        <v>4841765.329702714</v>
+      </c>
+      <c r="H207">
+        <v>3986316.029216998</v>
+      </c>
+      <c r="I207">
+        <v>1117342.374326718</v>
+      </c>
+      <c r="J207">
+        <v>4840989.655404076</v>
+      </c>
+      <c r="K207">
+        <v>3982655.50438987</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>57</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.360497084</v>
+      </c>
+      <c r="G208">
+        <v>4841781.842510897</v>
+      </c>
+      <c r="H208">
+        <v>3986323.612944479</v>
+      </c>
+      <c r="I208">
+        <v>1117433.045088654</v>
+      </c>
+      <c r="J208">
+        <v>4840941.003772085</v>
+      </c>
+      <c r="K208">
+        <v>3982262.463032145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>57</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116399.88323553</v>
+      </c>
+      <c r="G209">
+        <v>4841798.355319079</v>
+      </c>
+      <c r="H209">
+        <v>3986331.009679824</v>
+      </c>
+      <c r="I209">
+        <v>1117525.948534687</v>
+      </c>
+      <c r="J209">
+        <v>4840892.352140092</v>
+      </c>
+      <c r="K209">
+        <v>3981854.273053909</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>57</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.42311397</v>
+      </c>
+      <c r="G210">
+        <v>4841814.868127262</v>
+      </c>
+      <c r="H210">
+        <v>3986338.228422906</v>
+      </c>
+      <c r="I210">
+        <v>1117621.139642609</v>
+      </c>
+      <c r="J210">
+        <v>4840843.700508102</v>
+      </c>
+      <c r="K210">
+        <v>3981430.934455161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>57</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116398.97913063</v>
+      </c>
+      <c r="G211">
+        <v>4841831.380935444</v>
+      </c>
+      <c r="H211">
+        <v>3986345.277539095</v>
+      </c>
+      <c r="I211">
+        <v>1117718.674743989</v>
+      </c>
+      <c r="J211">
+        <v>4840795.04887611</v>
+      </c>
+      <c r="K211">
+        <v>3980992.447235901</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>57</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.55036382</v>
+      </c>
+      <c r="G212">
+        <v>4841847.893743627</v>
+      </c>
+      <c r="H212">
+        <v>3986352.164817539</v>
+      </c>
+      <c r="I212">
+        <v>1117818.61155751</v>
+      </c>
+      <c r="J212">
+        <v>4840746.39724412</v>
+      </c>
+      <c r="K212">
+        <v>3980538.81139613</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>57</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.135963889</v>
+      </c>
+      <c r="G213">
+        <v>4841864.40655181</v>
+      </c>
+      <c r="H213">
+        <v>3986358.897522895</v>
+      </c>
+      <c r="I213">
+        <v>1117921.009223123</v>
+      </c>
+      <c r="J213">
+        <v>4840697.745612128</v>
+      </c>
+      <c r="K213">
+        <v>3980070.026935848</v>
       </c>
     </row>
   </sheetData>
